--- a/public/preprocessing/@Fahrihamzah.xlsx
+++ b/public/preprocessing/@Fahrihamzah.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>23099</v>
+        <v>30941</v>
       </c>
       <c r="C2" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>gajadi ya</t>
+          <t>yuk nonton</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['gajadi', 'ya']</t>
+          <t>['yuk', 'nonton']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>['yuk', 'menonton']</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>['gajadi']</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['gajadi']</t>
+          <t>['yuk', 'menonton']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['yuk', 'tonton']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23100</v>
+        <v>30942</v>
       </c>
       <c r="C3" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>temans saya jujur pengen dapat penjelasan soal almarhum fpi jadi tersangka ada yg punya sumber penjelasan yg bagus</t>
+          <t>jika tidak ada peeubahan dalam politik maka apa yang terjadi ya</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['temans', 'saya', 'jujur', 'pengen', 'dapat', 'penjelasan', 'soal', 'almarhum', 'fpi', 'jadi', 'tersangka', 'ada', 'yg', 'punya', 'sumber', 'penjelasan', 'yg', 'bagus']</t>
+          <t>['jika', 'tidak', 'ada', 'peeubahan', 'dalam', 'politik', 'maka', 'apa', 'yang', 'terjadi', 'ya']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['jika', 'tidak', 'ada', 'peeubahan', 'dalam', 'politik', 'maka', 'apa', 'yang', 'terjadi', 'ya']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['temans', 'jujur', 'pengen', 'penjelasan', 'almarhum', 'fpi', 'tersangka', 'sumber', 'penjelasan', 'bagus']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['temans', 'jujur', 'ken', 'jelas', 'almarhum', 'fpi', 'sangka', 'sumber', 'jelas', 'bagus']</t>
+          <t>['peeubahan', 'politik']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['peeubahan', 'politik']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23101</v>
+        <v>30943</v>
       </c>
       <c r="C4" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>berbeda dengan agama negara adalah produk manusia yg rasional karena itu selamanya kita menuntut negara harus mas</t>
+          <t>tahun lagi rakyat nyoblos tahun lagi calon kampanye tahun lagi mesin parpol on sekarang ngapain kita</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['berbeda', 'dengan', 'agama', 'negara', 'adalah', 'produk', 'manusia', 'yg', 'rasional', 'karena', 'itu', 'selamanya', 'kita', 'menuntut', 'negara', 'harus', 'mas']</t>
+          <t>['tahun', 'lagi', 'rakyat', 'nyoblos', 'tahun', 'lagi', 'calon', 'kampanye', 'tahun', 'lagi', 'mesin', 'parpol', 'on', 'sekarang', 'ngapain', 'kita']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['tahun', 'lagi', 'rakyat', 'mencoblos', 'tahun', 'lagi', 'calon', 'kampanye', 'tahun', 'lagi', 'mesin', 'partai, politik', 'on', 'sekarang', 'apa', 'kita']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['berbeda', 'agama', 'negara', 'produk', 'manusia', 'rasional', 'menuntut', 'negara', 'mas']</t>
+          <t>&lt;FreqDist with 12 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['beda', 'agama', 'negara', 'produk', 'manusia', 'rasional', 'tuntut', 'negara', 'mas']</t>
+          <t>['rakyat', 'mencoblos', 'calon', 'kampanye', 'mesin', 'partai, politik', 'on']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['rakyat', 'coblos', 'calon', 'kampanye', 'mesin', 'partai politik', 'on']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>23102</v>
+        <v>30944</v>
       </c>
       <c r="C5" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>agama soal negara soal keduanya ada agama datang duluan negara mengambil pelajaran ja</t>
+          <t>para pencinta di mulai selasa besok ada gantinya nih</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['agama', 'soal', 'negara', 'soal', 'keduanya', 'ada', 'agama', 'datang', 'duluan', 'negara', 'mengambil', 'pelajaran', 'ja']</t>
+          <t>['para', 'pencinta', 'di', 'mulai', 'selasa', 'besok', 'ada', 'gantinya', 'nih']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 13 outcomes&gt;</t>
+          <t>['para', 'pencinta', 'di', 'mulai', 'selasa', 'besok', 'ada', 'gantinya', 'nih']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['agama', 'negara', 'agama', 'duluan', 'negara', 'mengambil', 'pelajaran', 'ja']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['agama', 'negara', 'agama', 'duluan', 'negara', 'ambil', 'ajar', 'ja']</t>
+          <t>['pencinta', 'selasa', 'besok', 'gantinya']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['cinta', 'selasa', 'besok', 'ganti']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>23103</v>
+        <v>30945</v>
       </c>
       <c r="C6" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>menarik nih besok ikuti perkembangan us pasca trump</t>
+          <t>para pencinta di mulai besok ada gantinya nih</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['menarik', 'nih', 'besok', 'ikuti', 'perkembangan', 'us', 'pasca', 'trump']</t>
+          <t>['para', 'pencinta', 'di', 'mulai', 'besok', 'ada', 'gantinya', 'nih']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>['para', 'pencinta', 'di', 'mulai', 'besok', 'ada', 'gantinya', 'nih']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['menarik', 'besok', 'ikuti', 'perkembangan', 'us', 'pasca', 'trump']</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['tarik', 'besok', 'ikut', 'kembang', 'us', 'pasca', 'trump']</t>
+          <t>['pencinta', 'besok', 'gantinya']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['cinta', 'besok', 'ganti']</t>
         </is>
       </c>
     </row>
@@ -655,30 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>23104</v>
+        <v>30946</v>
       </c>
       <c r="C7" t="n">
-        <v>279</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>360</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>pagi kawan</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['pagi', 'kawan']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['pagi', 'kawan']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['pagi', 'kawan']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['pagi', 'kawan']</t>
         </is>
       </c>
     </row>
@@ -687,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>23105</v>
+        <v>30947</v>
       </c>
       <c r="C8" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>jadinya jamu ya</t>
+          <t>mari kita mulai hari baik ini dengan hal yang baik</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['jadinya', 'jamu', 'ya']</t>
+          <t>['mari', 'kita', 'mulai', 'hari', 'baik', 'ini', 'dengan', 'hal', 'yang', 'baik']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['mari', 'kita', 'mulai', 'hari', 'baik', 'ini', 'dengan', 'hal', 'yang', 'baik']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['jamu']</t>
+          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['jamu']</t>
+          <t>['mari']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['mari']</t>
         </is>
       </c>
     </row>
@@ -723,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>23106</v>
+        <v>30948</v>
       </c>
       <c r="C9" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>johan budi dulu jubir hebat sekarang wakil rakyat yang</t>
+          <t>dapat lagi kiriman adikku buka bakery sila bagi yg minat instagram id no tlp alam</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['johan', 'budi', 'dulu', 'jubir', 'hebat', 'sekarang', 'wakil', 'rakyat', 'yang']</t>
+          <t>['dapat', 'lagi', 'kiriman', 'adikku', 'buka', 'bakery', 'sila', 'bagi', 'yg', 'minat', 'instagram', 'id', 'no', 'tlp', 'alam']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['dapat', 'lagi', 'kiriman', 'adikku', 'buka', 'bakery', 'sila', 'bagi', 'yang', 'minat', 'instagram', 'id', 'no', 'telepon', 'alam']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['johan', 'budi', 'jubir', 'hebat', 'wakil', 'rakyat']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['johan', 'budi', 'jubir', 'hebat', 'wakil', 'rakyat']</t>
+          <t>['kiriman', 'adikku', 'buka', 'bakery', 'sila', 'minat', 'instagram', 'id', 'no', 'telepon', 'alam']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['kirim', 'adik', 'buka', 'bakery', 'sila', 'minat', 'instagram', 'id', 'no', 'telepon', 'alam']</t>
         </is>
       </c>
     </row>
@@ -759,34 +808,35 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>23107</v>
+        <v>30949</v>
       </c>
       <c r="C10" t="n">
-        <v>279</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>semoga agenda ini tak terlupakan</t>
-        </is>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['semoga', 'agenda', 'ini', 'tak', 'terlupakan']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['semoga', 'agenda', 'terlupakan']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['moga', 'agenda', 'lupa']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -795,34 +845,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>23108</v>
+        <v>30950</v>
       </c>
       <c r="C11" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>lebih sangar ya</t>
+          <t>jangan lupa pergi jumatan kawan</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['lebih', 'sangar', 'ya']</t>
+          <t>['jangan', 'lupa', 'pergi', 'jumatan', 'kawan']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['jangan', 'lupa', 'pergi', 'jumatan', 'kawan']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['sangar']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['sangar']</t>
+          <t>['lupa', 'pergi', 'jumatan', 'kawan']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['lupa', 'pergi', 'jumat', 'kawan']</t>
         </is>
       </c>
     </row>
@@ -831,34 +886,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>23109</v>
+        <v>30951</v>
       </c>
       <c r="C12" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>tiba lulus sma</t>
+          <t>ingaingabadaftar rame</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['tiba', 'lulus', 'sma']</t>
+          <t>['ingaingabadaftar', 'rame']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['ingaingabadaftar', 'ramai']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['lulus', 'sma']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['lulus', 'sma']</t>
+          <t>['ingaingabadaftar', 'ramai']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['ingaingabadaftar', 'ramai']</t>
         </is>
       </c>
     </row>
@@ -867,34 +927,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>23110</v>
+        <v>30952</v>
       </c>
       <c r="C13" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>kalau minum jamu lebih jelasinvestasi jamu lebih jelasayo jadikan jamu minuman global sehat dan anti coron</t>
+          <t>selamat berlibur selamat memperingati perjuangan memerlukan imajinasi melampaui masa perjungan</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['kalau', 'minum', 'jamu', 'lebih', 'jelasinvestasi', 'jamu', 'lebih', 'jelasayo', 'jadikan', 'jamu', 'minuman', 'global', 'sehat', 'dan', 'anti', 'coron']</t>
+          <t>['selamat', 'berlibur', 'selamat', 'memperingati', 'perjuangan', 'memerlukan', 'imajinasi', 'melampaui', 'masa', 'perjungan']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
+          <t>['selamat', 'berlibur', 'selamat', 'memperingati', 'perjuangan', 'memerlukan', 'imajinasi', 'melampaui', 'masa', 'perjungan']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['minum', 'jamu', 'jelasinvestasi', 'jamu', 'jelasayo', 'jadikan', 'jamu', 'minuman', 'global', 'sehat', 'anti', 'coron']</t>
+          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['minum', 'jamu', 'jelasinvestasi', 'jamu', 'jelasayo', 'jadi', 'jamu', 'minum', 'global', 'sehat', 'anti', 'coron']</t>
+          <t>['selamat', 'berlibur', 'selamat', 'memperingati', 'perjuangan', 'imajinasi', 'melampaui', 'perjungan']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['selamat', 'libur', 'selamat', 'ingat', 'juang', 'imajinasi', 'lampau', 'jung']</t>
         </is>
       </c>
     </row>
@@ -903,34 +968,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>23111</v>
+        <v>30953</v>
       </c>
       <c r="C14" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>selamat jalan pak artidjo</t>
+          <t>teman aku dapat kiriman pie yg enak bagi yg berminat silahkan hubungi website ig</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['selamat', 'jalan', 'pak', 'artidjo']</t>
+          <t>['teman', 'aku', 'dapat', 'kiriman', 'pie', 'yg', 'enak', 'bagi', 'yg', 'berminat', 'silahkan', 'hubungi', 'website', 'ig']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['teman', 'aku', 'dapat', 'kiriman', 'pie', 'yang', 'enak', 'bagi', 'yang', 'berminat', 'silakan', 'hubungi', 'website', 'instagram']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['selamat', 'jalan', 'artidjo']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['selamat', 'jalan', 'artidjo']</t>
+          <t>['teman', 'kiriman', 'pie', 'enak', 'berminat', 'silakan', 'hubungi', 'website', 'instagram']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['teman', 'kirim', 'pie', 'enak', 'minat', 'sila', 'hubung', 'website', 'instagram']</t>
         </is>
       </c>
     </row>
@@ -939,34 +1009,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>23112</v>
+        <v>30954</v>
       </c>
       <c r="C15" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>lagi vaksin bang</t>
+          <t>apa kabar bu sehat selalu ini bukan baby lobster tapi lobster sebesar babyberat kg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['lagi', 'vaksin', 'bang']</t>
+          <t>['apa', 'kabar', 'bu', 'sehat', 'selalu', 'ini', 'bukan', 'baby', 'lobster', 'tapi', 'lobster', 'sebesar', 'babyberat', 'kg']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['apa', 'kabar', 'bu', 'sehat', 'selalu', 'ini', 'bukan', 'baby', 'lobster', 'tapi', 'lobster', 'sebesar', 'babyberat', 'kg']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['vaksin', 'bang']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['vaksin', 'bang']</t>
+          <t>['kabar', 'bu', 'sehat', 'baby', 'lobster', 'lobster', 'babyberat', 'kg']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['kabar', 'bu', 'sehat', 'baby', 'lobster', 'lobster', 'babyberat', 'kg']</t>
         </is>
       </c>
     </row>
@@ -975,34 +1050,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>23113</v>
+        <v>30955</v>
       </c>
       <c r="C16" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>mari kita aminkan</t>
+          <t>itu artinya saya gak nyapres tapi punya konsep jitu bersihkan indonesia dari korupsi korupsi muda</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['mari', 'kita', 'aminkan']</t>
+          <t>['itu', 'artinya', 'saya', 'gak', 'nyapres', 'tapi', 'punya', 'konsep', 'jitu', 'bersihkan', 'indonesia', 'dari', 'korupsi', 'korupsi', 'muda']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['itu', 'artinya', 'saya', 'tidak', 'mencalonkan, presiden', 'tapi', 'punya', 'konsep', 'jitu', 'bersihkan', 'indonesia', 'dari', 'korupsi', 'korupsi', 'muda']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['mari', 'aminkan']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['mari', 'amin']</t>
+          <t>['mencalonkan, presiden', 'konsep', 'jitu', 'bersihkan', 'indonesia', 'korupsi', 'korupsi', 'muda']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['calon presiden', 'konsep', 'jitu', 'sih', 'indonesia', 'korupsi', 'korupsi', 'muda']</t>
         </is>
       </c>
     </row>
@@ -1011,34 +1091,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>23114</v>
+        <v>30956</v>
       </c>
       <c r="C17" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">ayo datang ke kins coffee roasters and coworking space di mataram ditunggu jl gn kerinci dasan agung baru </t>
+          <t>saya sih senang mendengar pak prof amien rais dkk diterima presiden di kepala saya hanya ada rekonsilias</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['ayo', 'datang', 'ke', 'kins', 'coffee', 'roasters', 'and', 'coworking', 'space', 'di', 'mataram', 'ditunggu', 'jl', 'gn', 'kerinci', 'dasan', 'agung', 'baru']</t>
+          <t>['saya', 'sih', 'senang', 'mendengar', 'pak', 'prof', 'amien', 'rais', 'dkk', 'diterima', 'presiden', 'di', 'kepala', 'saya', 'hanya', 'ada', 'rekonsilias']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['saya', 'sih', 'senang', 'mendengar', 'pak', 'prof', 'amien', 'rais', 'dan, kawan, kawan', 'diterima', 'presiden', 'di', 'kepala', 'saya', 'hanya', 'ada', 'rekonsilias']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['ayo', 'kins', 'coffee', 'roasters', 'and', 'coworking', 'space', 'mataram', 'ditunggu', 'jl', 'gn', 'kerinci', 'dasan', 'agung']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['ayo', 'kins', 'coffee', 'roasters', 'and', 'coworking', 'space', 'mataram', 'tunggu', 'jl', 'gn', 'kerinci', 'das', 'agung']</t>
+          <t>['senang', 'mendengar', 'prof', 'amien', 'rais', 'dan, kawan, kawan', 'diterima', 'presiden', 'kepala', 'rekonsilias']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['senang', 'dengar', 'prof', 'amien', 'rais', 'dan kawan kawan', 'terima', 'presiden', 'kepala', 'rekonsilias']</t>
         </is>
       </c>
     </row>
@@ -1047,34 +1132,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>23115</v>
+        <v>30957</v>
       </c>
       <c r="C18" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>negeriku rakyatku taunami dan gelombang adalah sahabat dalam perjalanan perahu kita siapkan perjalanan kita ter</t>
+          <t>pagi sahabat waspada kalau ada orang nyasar menawarkan peta jalan</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['negeriku', 'rakyatku', 'taunami', 'dan', 'gelombang', 'adalah', 'sahabat', 'dalam', 'perjalanan', 'perahu', 'kita', 'siapkan', 'perjalanan', 'kita', 'ter']</t>
+          <t>['pagi', 'sahabat', 'waspada', 'kalau', 'ada', 'orang', 'nyasar', 'menawarkan', 'peta', 'jalan']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
+          <t>['pagi', 'sahabat', 'waspada', 'kalau', 'ada', 'orang', 'menyasar', 'menawarkan', 'peta', 'jalan']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['negeriku', 'rakyatku', 'taunami', 'gelombang', 'sahabat', 'perjalanan', 'perahu', 'siapkan', 'perjalanan', 'ter']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['negeri', 'rakyat', 'taunami', 'gelombang', 'sahabat', 'jalan', 'perahu', 'siap', 'jalan', 'ter']</t>
+          <t>['pagi', 'sahabat', 'waspada', 'orang', 'menyasar', 'menawarkan', 'peta', 'jalan']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['pagi', 'sahabat', 'waspada', 'orang', 'sasar', 'tawar', 'peta', 'jalan']</t>
         </is>
       </c>
     </row>
@@ -1083,34 +1173,35 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>23116</v>
+        <v>30958</v>
       </c>
       <c r="C19" t="n">
-        <v>279</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>susurilah pantai gelora dengarlah suara perubahan desir angin mencipta gelombang lautan menggelinding menja</t>
-        </is>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['susurilah', 'pantai', 'gelora', 'dengarlah', 'suara', 'perubahan', 'desir', 'angin', 'mencipta', 'gelombang', 'lautan', 'menggelinding', 'menja']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['susurilah', 'pantai', 'gelora', 'dengarlah', 'suara', 'perubahan', 'desir', 'angin', 'mencipta', 'gelombang', 'lautan', 'menggelinding', 'menja']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['susur', 'pantai', 'gelora', 'dengar', 'suara', 'ubah', 'desir', 'angin', 'cipta', 'gelombang', 'laut', 'gelinding', 'menja']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1119,34 +1210,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>23117</v>
+        <v>30959</v>
       </c>
       <c r="C20" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">jangan sampai uang yang ditenukan dalam perkara ini hanya uang cash yang ditemukan di restoranini akan membuat </t>
+          <t>ampun</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['jangan', 'sampai', 'uang', 'yang', 'ditenukan', 'dalam', 'perkara', 'ini', 'hanya', 'uang', 'cash', 'yang', 'ditemukan', 'di', 'restoranini', 'akan', 'membuat']</t>
+          <t>['ampun']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['ampun']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['uang', 'ditenukan', 'perkara', 'uang', 'cash', 'ditemukan', 'restoranini']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['uang', 'tenuk', 'perkara', 'uang', 'cash', 'temu', 'restoranini']</t>
+          <t>['ampun']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['ampun']</t>
         </is>
       </c>
     </row>
@@ -1155,34 +1251,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>23118</v>
+        <v>30960</v>
       </c>
       <c r="C21" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>dengan sistem dalam uu hasil revisi baru jika kpk menangkap seseorang pasti sudah dengan alat bukti hasil audit yg</t>
+          <t>gondrong terima kasih ya meski agak serem gapapa tetap terima kasih</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['dengan', 'sistem', 'dalam', 'uu', 'hasil', 'revisi', 'baru', 'jika', 'kpk', 'menangkap', 'seseorang', 'pasti', 'sudah', 'dengan', 'alat', 'bukti', 'hasil', 'audit', 'yg']</t>
+          <t>['gondrong', 'terima', 'kasih', 'ya', 'meski', 'agak', 'serem', 'gapapa', 'tetap', 'terima', 'kasih']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['gondrong', 'terima', 'kasih', 'ya', 'meski', 'agak', 'seram', 'tidak, apa, apa', 'tetap', 'terima', 'kasih']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['sistem', 'uu', 'hasil', 'revisi', 'kpk', 'menangkap', 'alat', 'bukti', 'hasil', 'audit']</t>
+          <t>&lt;FreqDist with 9 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['sistem', 'uu', 'hasil', 'revisi', 'kpk', 'tangkap', 'alat', 'bukti', 'hasil', 'audit']</t>
+          <t>['gondrong', 'terima', 'kasih', 'seram', 'tidak, apa, apa', 'terima', 'kasih']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['gondrong', 'terima', 'kasih', 'seram', 'tidak apa apa', 'terima', 'kasih']</t>
         </is>
       </c>
     </row>
@@ -1191,34 +1292,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>23119</v>
+        <v>30961</v>
       </c>
       <c r="C22" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ini buku hampir halaman masih tersimpan belum dipublikasisaya bicara dan menulis kritik kepada kpk sepanjan</t>
+          <t>kemana juga paling enak jadi rakyat lah omsuka bebas</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['ini', 'buku', 'hampir', 'halaman', 'masih', 'tersimpan', 'belum', 'dipublikasisaya', 'bicara', 'dan', 'menulis', 'kritik', 'kepada', 'kpk', 'sepanjan']</t>
+          <t>['kemana', 'juga', 'paling', 'enak', 'jadi', 'rakyat', 'lah', 'omsuka', 'bebas']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['kemana', 'juga', 'paling', 'enak', 'jadi', 'rakyat', 'lah', 'omsuka', 'bebas']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['buku', 'halaman', 'tersimpan', 'dipublikasisaya', 'bicara', 'menulis', 'kritik', 'kpk', 'sepanjan']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['buku', 'halaman', 'simpan', 'dipublikasisaya', 'bicara', 'tulis', 'kritik', 'kpk', 'sepanjan']</t>
+          <t>['kemana', 'enak', 'rakyat', 'omsuka', 'bebas']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['mana', 'enak', 'rakyat', 'omsuka', 'bebas']</t>
         </is>
       </c>
     </row>
@@ -1227,34 +1333,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>23120</v>
+        <v>30962</v>
       </c>
       <c r="C23" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>katanya kpk lemah</t>
+          <t>aku baru sadar sekarang ternyata lihat orang rapat itu membosankan yanah mereka yg rapat gak pernah bosan om</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['katanya', 'kpk', 'lemah']</t>
+          <t>['aku', 'baru', 'sadar', 'sekarang', 'ternyata', 'lihat', 'orang', 'rapat', 'itu', 'membosankan', 'yanah', 'mereka', 'yg', 'rapat', 'gak', 'pernah', 'bosan', 'om']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['aku', 'baru', 'sadar', 'sekarang', 'ternyata', 'lihat', 'orang', 'rapat', 'itu', 'membosankan', 'yanah', 'mereka', 'yang', 'rapat', 'tidak', 'pernah', 'bosan', 'om']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['kpk', 'lemah']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['kpk', 'lemah']</t>
+          <t>['sadar', 'lihat', 'orang', 'rapat', 'membosankan', 'yanah', 'rapat', 'bosan', 'om']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['sadar', 'lihat', 'orang', 'rapat', 'bosan', 'yanah', 'rapat', 'bosan', 'om']</t>
         </is>
       </c>
     </row>
@@ -1263,34 +1374,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>23121</v>
+        <v>30963</v>
       </c>
       <c r="C24" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>jadi sekali lagi norma yang mengatur urusan antar individu itu tidak hilang akan tetapi kuhp baru memoderasinya den</t>
+          <t>mas apa kabar</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['jadi', 'sekali', 'lagi', 'norma', 'yang', 'mengatur', 'urusan', 'antar', 'individu', 'itu', 'tidak', 'hilang', 'akan', 'tetapi', 'kuhp', 'baru', 'memoderasinya', 'den']</t>
+          <t>['mas', 'apa', 'kabar']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['mas', 'apa', 'kabar']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['norma', 'mengatur', 'urusan', 'individu', 'hilang', 'kuhp', 'memoderasinya', 'den']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['norma', 'atur', 'urus', 'individu', 'hilang', 'kuhp', 'memoderasinya', 'den']</t>
+          <t>['mas', 'kabar']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['mas', 'kabar']</t>
         </is>
       </c>
     </row>
@@ -1299,34 +1415,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>23122</v>
+        <v>30964</v>
       </c>
       <c r="C25" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>tujuan pemidanaan dalam kuhp baru bergeser dari mengejar keadilan retributif penjeraan pelaku menjadi keadilan ko</t>
+          <t>cerita lama ini</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['tujuan', 'pemidanaan', 'dalam', 'kuhp', 'baru', 'bergeser', 'dari', 'mengejar', 'keadilan', 'retributif', 'penjeraan', 'pelaku', 'menjadi', 'keadilan', 'ko']</t>
+          <t>['cerita', 'lama', 'ini']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['cerita', 'lama', 'ini']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['tujuan', 'pemidanaan', 'kuhp', 'bergeser', 'mengejar', 'keadilan', 'retributif', 'penjeraan', 'pelaku', 'keadilan', 'ko']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['tuju', 'pidana', 'kuhp', 'geser', 'kejar', 'adil', 'retributif', 'jera', 'laku', 'adil', 'ko']</t>
+          <t>['cerita']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['cerita']</t>
         </is>
       </c>
     </row>
@@ -1335,34 +1456,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>23123</v>
+        <v>30965</v>
       </c>
       <c r="C26" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>pasal pasal yang ada di uu ite ketika masuk ke kuhp akan mengalami rekodifikasi dan akan sifatnya akan menjadi leb</t>
+          <t>sudah sampai mana tadi ceritanya yak</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['pasal', 'pasal', 'yang', 'ada', 'di', 'uu', 'ite', 'ketika', 'masuk', 'ke', 'kuhp', 'akan', 'mengalami', 'rekodifikasi', 'dan', 'akan', 'sifatnya', 'akan', 'menjadi', 'leb']</t>
+          <t>['sudah', 'sampai', 'mana', 'tadi', 'ceritanya', 'yak']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 20 outcomes&gt;</t>
+          <t>['sudah', 'sampai', 'mana', 'tadi', 'ceritanya', 'ya']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['pasal', 'pasal', 'uu', 'ite', 'masuk', 'kuhp', 'mengalami', 'rekodifikasi', 'sifatnya', 'leb']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['pasal', 'pasal', 'uu', 'ite', 'masuk', 'kuhp', 'alami', 'rekodifikasi', 'sifat', 'leb']</t>
+          <t>['ceritanya']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['cerita']</t>
         </is>
       </c>
     </row>
@@ -1371,34 +1497,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>23124</v>
+        <v>30966</v>
       </c>
       <c r="C27" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>saya juga sudah mengusulkan jalan pamungkas yaitu dengan segwra membahas dan mengesahkan ruu kuhp yang sudah seles</t>
+          <t xml:space="preserve">jenderal bintang vs mayor kalau jenderal menang ya wajar tapi kalau sang mayor menerjang jenderal dan menang </t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['saya', 'juga', 'sudah', 'mengusulkan', 'jalan', 'pamungkas', 'yaitu', 'dengan', 'segwra', 'membahas', 'dan', 'mengesahkan', 'ruu', 'kuhp', 'yang', 'sudah', 'seles']</t>
+          <t>['jenderal', 'bintang', 'vs', 'mayor', 'kalau', 'jenderal', 'menang', 'ya', 'wajar', 'tapi', 'kalau', 'sang', 'mayor', 'menerjang', 'jenderal', 'dan', 'menang']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['jenderal', 'bintang', 'lawan', 'mayor', 'kalau', 'jenderal', 'menang', 'ya', 'wajar', 'tapi', 'kalau', 'sang', 'mayor', 'menerjang', 'jenderal', 'dan', 'menang']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['mengusulkan', 'jalan', 'pamungkas', 'segwra', 'membahas', 'mengesahkan', 'ruu', 'kuhp', 'seles']</t>
+          <t>&lt;FreqDist with 12 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['usul', 'jalan', 'pamungkas', 'segwra', 'bahas', 'kesah', 'ruu', 'kuhp', 'les']</t>
+          <t>['jenderal', 'bintang', 'lawan', 'mayor', 'jenderal', 'menang', 'wajar', 'sang', 'mayor', 'menerjang', 'jenderal', 'menang']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['jenderal', 'bintang', 'lawan', 'mayor', 'jenderal', 'menang', 'wajar', 'sang', 'mayor', 'terjang', 'jenderal', 'menang']</t>
         </is>
       </c>
     </row>
@@ -1407,34 +1538,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>23125</v>
+        <v>30967</v>
       </c>
       <c r="C28" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>memang secara filosofis tidak boleh ada satu realitas bagi individu atau kelompok merugikan dirinya lalu tak terdef</t>
+          <t>tapi kalau anda dizalimi tugas anda melawan</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['memang', 'secara', 'filosofis', 'tidak', 'boleh', 'ada', 'satu', 'realitas', 'bagi', 'individu', 'atau', 'kelompok', 'merugikan', 'dirinya', 'lalu', 'tak', 'terdef']</t>
+          <t>['tapi', 'kalau', 'anda', 'dizalimi', 'tugas', 'anda', 'melawan']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['tapi', 'kalau', 'anda', 'dizalimi', 'tugas', 'anda', 'melawan']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['filosofis', 'realitas', 'individu', 'kelompok', 'merugikan', 'terdef']</t>
+          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['filosofis', 'realitas', 'individu', 'kelompok', 'rugi', 'terdef']</t>
+          <t>['dizalimi', 'tugas', 'melawan']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['zalim', 'tugas', 'lawan']</t>
         </is>
       </c>
     </row>
@@ -1443,34 +1579,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>23126</v>
+        <v>30968</v>
       </c>
       <c r="C29" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>tinggal masalahnya adalah bahwa tidak mungkin pula norma norma yang ada di ite hilang begitu saja semuanya krn norm</t>
+          <t xml:space="preserve">kasus yang terjadi pada partai demokrat ini harus menjadi momentum evaluasi total tentang peran partai politik ke </t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['tinggal', 'masalahnya', 'adalah', 'bahwa', 'tidak', 'mungkin', 'pula', 'norma', 'norma', 'yang', 'ada', 'di', 'ite', 'hilang', 'begitu', 'saja', 'semuanya', 'krn', 'norm']</t>
+          <t>['kasus', 'yang', 'terjadi', 'pada', 'partai', 'demokrat', 'ini', 'harus', 'menjadi', 'momentum', 'evaluasi', 'total', 'tentang', 'peran', 'partai', 'politik', 'ke']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['kasus', 'yang', 'terjadi', 'pada', 'partai', 'demokrat', 'ini', 'harus', 'menjadi', 'momentum', 'evaluasi', 'total', 'tentang', 'peran', 'partai', 'politik', 'ke']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['tinggal', 'norma', 'norma', 'ite', 'hilang', 'norm']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['tinggal', 'norma', 'norma', 'ite', 'hilang', 'norm']</t>
+          <t>['partai', 'demokrat', 'momentum', 'evaluasi', 'total', 'peran', 'partai', 'politik']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['partai', 'demokrat', 'momentum', 'evaluasi', 'total', 'peran', 'partai', 'politik']</t>
         </is>
       </c>
     </row>
@@ -1479,34 +1620,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>23127</v>
+        <v>30969</v>
       </c>
       <c r="C30" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>selanjutnya jika pilihannya perppu yg merupakan hak konstitusional presiden dalam keadaan darurat perppu akan menu</t>
+          <t>kudeta biasanya berakhir kudeta</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['selanjutnya', 'jika', 'pilihannya', 'perppu', 'yg', 'merupakan', 'hak', 'konstitusional', 'presiden', 'dalam', 'keadaan', 'darurat', 'perppu', 'akan', 'menu']</t>
+          <t>['kudeta', 'biasanya', 'berakhir', 'kudeta']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['kudeta', 'biasanya', 'berakhir', 'kudeta']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['pilihannya', 'perppu', 'hak', 'konstitusional', 'presiden', 'darurat', 'perppu', 'menu']</t>
+          <t>&lt;FreqDist with 3 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['pilih', 'perppu', 'hak', 'konstitusional', 'presiden', 'darurat', 'perppu', 'menu']</t>
+          <t>['kudeta', 'kudeta']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['kudeta', 'kudeta']</t>
         </is>
       </c>
     </row>
@@ -1515,34 +1661,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>23128</v>
+        <v>30970</v>
       </c>
       <c r="C31" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>masalah berikutnya jika pilihannya adalah revisi uu tidak bisa menonaktifkan uu lain uu darurat</t>
+          <t>rt berdiri dgn ikhtiar sendiri mengumpulkan sumberdaya satu per satu puluhan ribu pengurus awal ribuan ran</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['masalah', 'berikutnya', 'jika', 'pilihannya', 'adalah', 'revisi', 'uu', 'tidak', 'bisa', 'menonaktifkan', 'uu', 'lain', 'uu', 'darurat']</t>
+          <t>['rt', 'berdiri', 'dgn', 'ikhtiar', 'sendiri', 'mengumpulkan', 'sumberdaya', 'satu', 'per', 'satu', 'puluhan', 'ribu', 'pengurus', 'awal', 'ribuan', 'ran']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'berdiri', 'dengan', 'ikhtiar', 'sendiri', 'mengumpulkan', 'sumberdaya', 'satu', 'per', 'satu', 'puluhan', 'ribu', 'pengurus', 'awal', 'ribuan', 'ran']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['pilihannya', 'revisi', 'uu', 'menonaktifkan', 'uu', 'uu', 'darurat']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['pilih', 'revisi', 'uu', 'nonaktif', 'uu', 'uu', 'darurat']</t>
+          <t>['berdiri', 'ikhtiar', 'mengumpulkan', 'sumberdaya', 'puluhan', 'ribu', 'pengurus', 'ribuan', 'ran']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['diri', 'ikhtiar', 'kumpul', 'sumberdaya', 'puluh', 'ribu', 'urus', 'ribu', 'ran']</t>
         </is>
       </c>
     </row>
@@ -1551,34 +1702,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>23129</v>
+        <v>30971</v>
       </c>
       <c r="C32" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>pilihan semisal ini butuh waktu lama karena semuanya harus msk dlm prolegnas dan memerlukan pembahasa</t>
+          <t>berdiri dgn ikhtiar sendiri mengumpulkan sumberdaya satu per satu puluhan ribu pengurus awal rib</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['pilihan', 'semisal', 'ini', 'butuh', 'waktu', 'lama', 'karena', 'semuanya', 'harus', 'msk', 'dlm', 'prolegnas', 'dan', 'memerlukan', 'pembahasa']</t>
+          <t>['berdiri', 'dgn', 'ikhtiar', 'sendiri', 'mengumpulkan', 'sumberdaya', 'satu', 'per', 'satu', 'puluhan', 'ribu', 'pengurus', 'awal', 'rib']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['berdiri', 'dengan', 'ikhtiar', 'sendiri', 'mengumpulkan', 'sumberdaya', 'satu', 'per', 'satu', 'puluhan', 'ribu', 'pengurus', 'awal', 'rib']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['pilihan', 'butuh', 'msk', 'dlm', 'prolegnas', 'pembahasa']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['pilih', 'butuh', 'msk', 'dlm', 'prolegnas', 'bahasa']</t>
+          <t>['berdiri', 'ikhtiar', 'mengumpulkan', 'sumberdaya', 'puluhan', 'ribu', 'pengurus', 'rib']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['diri', 'ikhtiar', 'kumpul', 'sumberdaya', 'puluh', 'ribu', 'urus', 'rib']</t>
         </is>
       </c>
     </row>
@@ -1587,34 +1743,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>23130</v>
+        <v>30972</v>
       </c>
       <c r="C33" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>dibalik pidato presiden dalam rapat kordinasi pimpinan tni polri sudah sangat jelas merefleksikan beberapa dilema</t>
+          <t>kezaliman itu punya banyak wajahtapi semuanya diternak oleh feodalisme yg kemudian merampas hak kita untuk menga</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['dibalik', 'pidato', 'presiden', 'dalam', 'rapat', 'kordinasi', 'pimpinan', 'tni', 'polri', 'sudah', 'sangat', 'jelas', 'merefleksikan', 'beberapa', 'dilema']</t>
+          <t>['kezaliman', 'itu', 'punya', 'banyak', 'wajahtapi', 'semuanya', 'diternak', 'oleh', 'feodalisme', 'yg', 'kemudian', 'merampas', 'hak', 'kita', 'untuk', 'menga']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['kezaliman', 'itu', 'punya', 'banyak', 'wajahtapi', 'semuanya', 'diternak', 'oleh', 'feodalisme', 'yang', 'kemudian', 'merampas', 'hak', 'kita', 'untuk', 'menga']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['dibalik', 'pidato', 'presiden', 'rapat', 'kordinasi', 'pimpinan', 'tni', 'polri', 'merefleksikan', 'dilema']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['balik', 'pidato', 'presiden', 'rapat', 'kordinasi', 'pimpin', 'tni', 'polri', 'refleksi', 'dilema']</t>
+          <t>['kezaliman', 'wajahtapi', 'diternak', 'feodalisme', 'merampas', 'hak', 'menga']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['zalim', 'wajahtapi', 'ternak', 'feodalisme', 'rampas', 'hak', 'menga']</t>
         </is>
       </c>
     </row>
@@ -1623,34 +1784,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>23131</v>
+        <v>30973</v>
       </c>
       <c r="C34" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>tindakan cepat bisa langsung dihadapkan ke meja kerja presiden semisal saya mengusul ada tiga pilihan langkah cep</t>
+          <t>pks adart diubah sepihak supaya saya mudah dipecat pd adart diubah supaya seorang mudah jadi</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['tindakan', 'cepat', 'bisa', 'langsung', 'dihadapkan', 'ke', 'meja', 'kerja', 'presiden', 'semisal', 'saya', 'mengusul', 'ada', 'tiga', 'pilihan', 'langkah', 'cep']</t>
+          <t>['pks', 'adart', 'diubah', 'sepihak', 'supaya', 'saya', 'mudah', 'dipecat', 'pd', 'adart', 'diubah', 'supaya', 'seorang', 'mudah', 'jadi']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['partai, keadilan, sejahtera', 'adart', 'diubah', 'sepihak', 'supaya', 'saya', 'mudah', 'dipecat', 'pada', 'adart', 'diubah', 'supaya', 'seorang', 'mudah', 'jadi']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['tindakan', 'cepat', 'langsung', 'dihadapkan', 'meja', 'kerja', 'presiden', 'mengusul', 'pilihan', 'langkah', 'cep']</t>
+          <t>&lt;FreqDist with 11 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['tindak', 'cepat', 'langsung', 'hadap', 'meja', 'kerja', 'presiden', 'usul', 'pilih', 'langkah', 'cep']</t>
+          <t>['partai, keadilan, sejahtera', 'adart', 'diubah', 'mudah', 'dipecat', 'adart', 'diubah', 'mudah']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['partai adil sejahtera', 'adart', 'ubah', 'mudah', 'pecat', 'adart', 'ubah', 'mudah']</t>
         </is>
       </c>
     </row>
@@ -1659,34 +1825,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>23132</v>
+        <v>30974</v>
       </c>
       <c r="C35" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>tafsir atas ucapan presiden sejatinya segera nampak dalam tindakan cepat mengeksekusi dan menjaga marwah tiap kata</t>
+          <t>moms yuk latih kembali bakat terpendam dan jadikan dapur tempat beraktualisasi saat pandemi ikuti aja acara bak</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['tafsir', 'atas', 'ucapan', 'presiden', 'sejatinya', 'segera', 'nampak', 'dalam', 'tindakan', 'cepat', 'mengeksekusi', 'dan', 'menjaga', 'marwah', 'tiap', 'kata']</t>
+          <t>['moms', 'yuk', 'latih', 'kembali', 'bakat', 'terpendam', 'dan', 'jadikan', 'dapur', 'tempat', 'beraktualisasi', 'saat', 'pandemi', 'ikuti', 'aja', 'acara', 'bak']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['moms', 'yuk', 'latih', 'kembali', 'bakat', 'terpendam', 'dan', 'jadikan', 'dapur', 'tempat', 'beraktualisasi', 'saat', 'pandemi', 'ikuti', 'saja', 'acara', 'bak']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['tafsir', 'ucapan', 'presiden', 'sejatinya', 'nampak', 'tindakan', 'cepat', 'mengeksekusi', 'menjaga', 'marwah']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['tafsir', 'ucap', 'presiden', 'sejati', 'nampak', 'tindak', 'cepat', 'eksekusi', 'jaga', 'marwah']</t>
+          <t>['moms', 'yuk', 'latih', 'bakat', 'terpendam', 'jadikan', 'dapur', 'beraktualisasi', 'pandemi', 'ikuti', 'acara', 'bak']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['moms', 'yuk', 'latih', 'bakat', 'pendam', 'jadi', 'dapur', 'aktual', 'pandemi', 'ikut', 'acara', 'bak']</t>
         </is>
       </c>
     </row>
@@ -1695,34 +1866,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>23133</v>
+        <v>30975</v>
       </c>
       <c r="C36" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>ucapan presiden harusnya bisa ditafsir cepat oleh kabinet tafsir nya tidak lagi mundur ke belakang dengan membentu</t>
+          <t>malu juga kita gini amat sih ya</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['ucapan', 'presiden', 'harusnya', 'bisa', 'ditafsir', 'cepat', 'oleh', 'kabinet', 'tafsir', 'nya', 'tidak', 'lagi', 'mundur', 'ke', 'belakang', 'dengan', 'membentu']</t>
+          <t>['malu', 'juga', 'kita', 'gini', 'amat', 'sih', 'ya']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['malu', 'juga', 'kita', 'begini', 'amat', 'sih', 'ya']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['ucapan', 'presiden', 'ditafsir', 'cepat', 'kabinet', 'tafsir', 'mundur', 'membentu']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['ucap', 'presiden', 'tafsir', 'cepat', 'kabinet', 'tafsir', 'mundur', 'membentu']</t>
+          <t>['malu']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['malu']</t>
         </is>
       </c>
     </row>
@@ -1731,34 +1907,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>23134</v>
+        <v>30976</v>
       </c>
       <c r="C37" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>dan terkait presiden sudah dengan sangat jelas menyebut ada rasa keadilan masyarakat yang tak terpenuh</t>
+          <t>penyesalan selalu datang belakangan</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['dan', 'terkait', 'presiden', 'sudah', 'dengan', 'sangat', 'jelas', 'menyebut', 'ada', 'rasa', 'keadilan', 'masyarakat', 'yang', 'tak', 'terpenuh']</t>
+          <t>['penyesalan', 'selalu', 'datang', 'belakangan']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['penyesalan', 'selalu', 'datang', 'belakangan']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['terkait', 'presiden', 'menyebut', 'keadilan', 'masyarakat', 'terpenuh']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['kait', 'presiden', 'sebut', 'adil', 'masyarakat', 'penuh']</t>
+          <t>['penyesalan']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['sesal']</t>
         </is>
       </c>
     </row>
@@ -1767,34 +1948,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>23135</v>
+        <v>30977</v>
       </c>
       <c r="C38" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>sebab dalam pemahaman saya ucapan presiden di hadapan publik tidak lahir dari ruang kosong presiden punya segala</t>
+          <t>ayuk ikutan</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['sebab', 'dalam', 'pemahaman', 'saya', 'ucapan', 'presiden', 'di', 'hadapan', 'publik', 'tidak', 'lahir', 'dari', 'ruang', 'kosong', 'presiden', 'punya', 'segala']</t>
+          <t>['ayuk', 'ikutan']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['ayo', 'ikutan']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['pemahaman', 'ucapan', 'presiden', 'hadapan', 'publik', 'lahir', 'ruang', 'kosong', 'presiden']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['paham', 'ucap', 'presiden', 'hadap', 'publik', 'lahir', 'ruang', 'kosong', 'presiden']</t>
+          <t>['ayo', 'ikutan']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['ayo', 'ikut']</t>
         </is>
       </c>
     </row>
@@ -1803,34 +1989,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>23136</v>
+        <v>30978</v>
       </c>
       <c r="C39" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>saya justru berharap inisiatif yang lebih cepat datang dari kabinet jajaran kabinet harus mengadaptasi sistem kerj</t>
+          <t>gajadi ya</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['saya', 'justru', 'berharap', 'inisiatif', 'yang', 'lebih', 'cepat', 'datang', 'dari', 'kabinet', 'jajaran', 'kabinet', 'harus', 'mengadaptasi', 'sistem', 'kerj']</t>
+          <t>['gajadi', 'ya']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['tidak, jadi', 'ya']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['berharap', 'inisiatif', 'cepat', 'kabinet', 'jajaran', 'kabinet', 'mengadaptasi', 'sistem', 'kerj']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['harap', 'inisiatif', 'cepat', 'kabinet', 'jajar', 'kabinet', 'adaptasi', 'sistem', 'kerj']</t>
+          <t>['tidak, jadi']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['tidak jadi']</t>
         </is>
       </c>
     </row>
@@ -1839,34 +2030,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>23137</v>
+        <v>30979</v>
       </c>
       <c r="C40" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>kapolri kita yang baru sepertinya lebih memahami maksud presiden lalu beliau mencoba beberapa inisiatif dan merup</t>
+          <t>temans saya jujur pengen dapat penjelasan soal almarhum fpi jadi tersangka ada yg punya sumber penjelasan yg bagus</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['kapolri', 'kita', 'yang', 'baru', 'sepertinya', 'lebih', 'memahami', 'maksud', 'presiden', 'lalu', 'beliau', 'mencoba', 'beberapa', 'inisiatif', 'dan', 'merup']</t>
+          <t>['temans', 'saya', 'jujur', 'pengen', 'dapat', 'penjelasan', 'soal', 'almarhum', 'fpi', 'jadi', 'tersangka', 'ada', 'yg', 'punya', 'sumber', 'penjelasan', 'yg', 'bagus']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['teman', 'saya', 'jujur', 'ingin', 'dapat', 'penjelasan', 'soal', 'almarhum', 'front, pembela, islam', 'jadi', 'tersangka', 'ada', 'yang', 'punya', 'sumber', 'penjelasan', 'yang', 'bagus']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['kapolri', 'memahami', 'maksud', 'presiden', 'beliau', 'mencoba', 'inisiatif', 'merup']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['kapolri', 'paham', 'maksud', 'presiden', 'beliau', 'coba', 'inisiatif', 'merup']</t>
+          <t>['teman', 'jujur', 'penjelasan', 'almarhum', 'front, pembela, islam', 'tersangka', 'sumber', 'penjelasan', 'bagus']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['teman', 'jujur', 'jelas', 'almarhum', 'front bela islam', 'sangka', 'sumber', 'jelas', 'bagus']</t>
         </is>
       </c>
     </row>
@@ -1875,34 +2071,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>23138</v>
+        <v>30980</v>
       </c>
       <c r="C41" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>saya tidak memahami sebab musabab kalau rakyat akhirnya menganggap presiden hanya bercanda soal pada</t>
+          <t>berbeda dengan agama negara adalah produk manusia yg rasional karena itu selamanya kita menuntut negara harus mas</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['saya', 'tidak', 'memahami', 'sebab', 'musabab', 'kalau', 'rakyat', 'akhirnya', 'menganggap', 'presiden', 'hanya', 'bercanda', 'soal', 'pada']</t>
+          <t>['berbeda', 'dengan', 'agama', 'negara', 'adalah', 'produk', 'manusia', 'yg', 'rasional', 'karena', 'itu', 'selamanya', 'kita', 'menuntut', 'negara', 'harus', 'mas']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['berbeda', 'dengan', 'agama', 'negara', 'adalah', 'produk', 'manusia', 'yang', 'rasional', 'karena', 'itu', 'selamanya', 'kita', 'menuntut', 'negara', 'harus', 'mas']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['memahami', 'musabab', 'rakyat', 'menganggap', 'presiden', 'bercanda']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['paham', 'musabab', 'rakyat', 'anggap', 'presiden', 'canda']</t>
+          <t>['berbeda', 'agama', 'negara', 'produk', 'manusia', 'rasional', 'menuntut', 'negara', 'mas']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['beda', 'agama', 'negara', 'produk', 'manusia', 'rasional', 'tuntut', 'negara', 'mas']</t>
         </is>
       </c>
     </row>
@@ -1911,34 +2112,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>23139</v>
+        <v>30981</v>
       </c>
       <c r="C42" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>pertahankan sensitifitas itu jenderal</t>
+          <t>agama soal negara soal keduanya ada agama datang duluan negara mengambil pelajaran ja</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['pertahankan', 'sensitifitas', 'itu', 'jenderal']</t>
+          <t>['agama', 'soal', 'negara', 'soal', 'keduanya', 'ada', 'agama', 'datang', 'duluan', 'negara', 'mengambil', 'pelajaran', 'ja']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['agama', 'soal', 'negara', 'soal', 'keduanya', 'ada', 'agama', 'datang', 'lebih, dahulu', 'negara', 'mengambil', 'pelajaran', 'saja']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['pertahankan', 'sensitifitas', 'jenderal']</t>
+          <t>&lt;FreqDist with 10 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['tahan', 'sensitifitas', 'jenderal']</t>
+          <t>['agama', 'negara', 'agama', 'lebih, dahulu', 'negara', 'mengambil', 'pelajaran']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['agama', 'negara', 'agama', 'lebih dahulu', 'negara', 'ambil', 'ajar']</t>
         </is>
       </c>
     </row>
@@ -1947,34 +2153,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>23140</v>
+        <v>30982</v>
       </c>
       <c r="C43" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>kabinet perang harus dibentuk</t>
+          <t>menarik nih besok ikuti perkembangan us pasca trump</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['kabinet', 'perang', 'harus', 'dibentuk']</t>
+          <t>['menarik', 'nih', 'besok', 'ikuti', 'perkembangan', 'us', 'pasca', 'trump']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['menarik', 'nih', 'besok', 'ikuti', 'perkembangan', 'us', 'pasca', 'trump']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['kabinet', 'perang', 'dibentuk']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['kabinet', 'perang', 'bentuk']</t>
+          <t>['menarik', 'besok', 'ikuti', 'perkembangan', 'us', 'pasca', 'trump']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['tarik', 'besok', 'ikut', 'kembang', 'us', 'pasca', 'trump']</t>
         </is>
       </c>
     </row>
@@ -1983,34 +2194,35 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>23141</v>
+        <v>30983</v>
       </c>
       <c r="C44" t="n">
-        <v>279</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>tips jaga stamina sahabat</t>
-        </is>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['tips', 'jaga', 'stamina', 'sahabat']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['tips', 'jaga', 'stamina', 'sahabat']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['tips', 'jaga', 'stamina', 'sahabat']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2019,34 +2231,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>23142</v>
+        <v>30984</v>
       </c>
       <c r="C45" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>serem amat yak</t>
+          <t>jadinya jamu ya</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['serem', 'amat', 'yak']</t>
+          <t>['jadinya', 'jamu', 'ya']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>['jadinya', 'jamu', 'ya']</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>['serem', 'yak']</t>
-        </is>
-      </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['rem', 'yak']</t>
+          <t>['jamu']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['jamu']</t>
         </is>
       </c>
     </row>
@@ -2055,34 +2272,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>23143</v>
+        <v>30985</v>
       </c>
       <c r="C46" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">menyaksikan teman petambak mengeringkan tambak untuk panen udang tadi sorekita harus segera bergeser </t>
+          <t>johan budi dulu jubir hebat sekarang wakil rakyat yang</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['menyaksikan', 'teman', 'petambak', 'mengeringkan', 'tambak', 'untuk', 'panen', 'udang', 'tadi', 'sorekita', 'harus', 'segera', 'bergeser']</t>
+          <t>['johan', 'budi', 'dulu', 'jubir', 'hebat', 'sekarang', 'wakil', 'rakyat', 'yang']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['johan', 'budi', 'dulu', 'juru, bicara', 'hebat', 'sekarang', 'wakil', 'rakyat', 'yang']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['menyaksikan', 'teman', 'petambak', 'mengeringkan', 'tambak', 'panen', 'udang', 'sorekita', 'bergeser']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['saksi', 'teman', 'tambak', 'ering', 'tambak', 'panen', 'udang', 'sorekita', 'geser']</t>
+          <t>['johan', 'budi', 'juru, bicara', 'hebat', 'wakil', 'rakyat']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['johan', 'budi', 'juru bicara', 'hebat', 'wakil', 'rakyat']</t>
         </is>
       </c>
     </row>
@@ -2091,34 +2313,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>23144</v>
+        <v>30986</v>
       </c>
       <c r="C47" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>saya tidak mendesak saya hanya usulkan skenario</t>
+          <t>semoga agenda ini tak terlupakan</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['saya', 'tidak', 'mendesak', 'saya', 'hanya', 'usulkan', 'skenario']</t>
+          <t>['semoga', 'agenda', 'ini', 'tak', 'terlupakan']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
+          <t>['semoga', 'agenda', 'ini', 'tak', 'terlupakan']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['mendesak', 'usulkan', 'skenario']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['desak', 'usul', 'skenario']</t>
+          <t>['semoga', 'agenda', 'terlupakan']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['moga', 'agenda', 'lupa']</t>
         </is>
       </c>
     </row>
@@ -2127,34 +2354,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>23145</v>
+        <v>30987</v>
       </c>
       <c r="C48" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>jadi kita akan segera memiliki kitab uu hukum pidana karya bangsa sendiri untuk mengakhiri ketidakpastian yg berak</t>
+          <t>lebih sangar ya</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['jadi', 'kita', 'akan', 'segera', 'memiliki', 'kitab', 'uu', 'hukum', 'pidana', 'karya', 'bangsa', 'sendiri', 'untuk', 'mengakhiri', 'ketidakpastian', 'yg', 'berak']</t>
+          <t>['lebih', 'sangar', 'ya']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['lebih', 'sangar', 'ya']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['memiliki', 'kitab', 'uu', 'hukum', 'pidana', 'karya', 'bangsa', 'ketidakpastian', 'berak']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['milik', 'kitab', 'uu', 'hukum', 'pidana', 'karya', 'bangsa', 'ketidakpastian', 'berak']</t>
+          <t>['sangar']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['sangar']</t>
         </is>
       </c>
     </row>
@@ -2163,34 +2395,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>23146</v>
+        <v>30988</v>
       </c>
       <c r="C49" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>pada periode yang lalu sebetulnya ri sudah menyelesaikan pembahasan tingkat pertama ruu kuhp menurut uu ruu</t>
+          <t>tiba lulus sma</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['pada', 'periode', 'yang', 'lalu', 'sebetulnya', 'ri', 'sudah', 'menyelesaikan', 'pembahasan', 'tingkat', 'pertama', 'ruu', 'kuhp', 'menurut', 'uu', 'ruu']</t>
+          <t>['tiba', 'lulus', 'sma']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['tiba', 'lulus', 'sama']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['periode', 'ri', 'menyelesaikan', 'pembahasan', 'tingkat', 'ruu', 'kuhp', 'uu', 'ruu']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['periode', 'ri', 'selesai', 'bahas', 'tingkat', 'ruu', 'kuhp', 'uu', 'ruu']</t>
+          <t>['lulus']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['lulus']</t>
         </is>
       </c>
     </row>
@@ -2199,34 +2436,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>23147</v>
+        <v>30989</v>
       </c>
       <c r="C50" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>kita memang mengapresiasi kepolisian ri kapolri dalam hal ini telah berinisiatif baik sekali untuk mengakhiri keti</t>
+          <t>kalau minum jamu lebih jelasinvestasi jamu lebih jelasayo jadikan jamu minuman global sehat dan anti coron</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['kita', 'memang', 'mengapresiasi', 'kepolisian', 'ri', 'kapolri', 'dalam', 'hal', 'ini', 'telah', 'berinisiatif', 'baik', 'sekali', 'untuk', 'mengakhiri', 'keti']</t>
+          <t>['kalau', 'minum', 'jamu', 'lebih', 'jelasinvestasi', 'jamu', 'lebih', 'jelasayo', 'jadikan', 'jamu', 'minuman', 'global', 'sehat', 'dan', 'anti', 'coron']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['kalau', 'minum', 'jamu', 'lebih', 'jelasinvestasi', 'jamu', 'lebih', 'jelasayo', 'jadikan', 'jamu', 'minuman', 'global', 'sehat', 'dan', 'anti', 'coron']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['mengapresiasi', 'kepolisian', 'ri', 'kapolri', 'berinisiatif', 'keti']</t>
+          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['apresiasi', 'polisi', 'ri', 'kapolri', 'inisiatif', 'keti']</t>
+          <t>['minum', 'jamu', 'jelasinvestasi', 'jamu', 'jelasayo', 'jadikan', 'jamu', 'minuman', 'global', 'sehat', 'anti', 'coron']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['minum', 'jamu', 'jelasinvestasi', 'jamu', 'jelasayo', 'jadi', 'jamu', 'minum', 'global', 'sehat', 'anti', 'coron']</t>
         </is>
       </c>
     </row>
@@ -2235,34 +2477,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>23148</v>
+        <v>30990</v>
       </c>
       <c r="C51" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>skenario ketiga ini pamungkas ini akan memberikan kepastian hukum yang lebih luas kepada seluruh uu lex specialis</t>
+          <t>selamat jalan pak artidjo</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['skenario', 'ketiga', 'ini', 'pamungkas', 'ini', 'akan', 'memberikan', 'kepastian', 'hukum', 'yang', 'lebih', 'luas', 'kepada', 'seluruh', 'uu', 'lex', 'specialis']</t>
+          <t>['selamat', 'jalan', 'pak', 'artidjo']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['selamat', 'jalan', 'pak', 'artidjo']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['skenario', 'ketiga', 'pamungkas', 'kepastian', 'hukum', 'luas', 'uu', 'lex', 'specialis']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['skenario', 'tiga', 'pamungkas', 'pasti', 'hukum', 'luas', 'uu', 'lex', 'specialis']</t>
+          <t>['selamat', 'jalan', 'artidjo']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['selamat', 'jalan', 'artidjo']</t>
         </is>
       </c>
     </row>
@@ -2271,34 +2518,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>23149</v>
+        <v>30991</v>
       </c>
       <c r="C52" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>ketiga tentunya yang paling komprehensif adalah kita menuntaskan pembahasan dan pengesahan rancangan uu kuhp kita</t>
+          <t>lagi vaksin bang</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['ketiga', 'tentunya', 'yang', 'paling', 'komprehensif', 'adalah', 'kita', 'menuntaskan', 'pembahasan', 'dan', 'pengesahan', 'rancangan', 'uu', 'kuhp', 'kita']</t>
+          <t>['lagi', 'vaksin', 'bang']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['lagi', 'vaksin', 'bang']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['ketiga', 'komprehensif', 'menuntaskan', 'pembahasan', 'pengesahan', 'rancangan', 'uu', 'kuhp']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['tiga', 'komprehensif', 'tuntas', 'bahas', 'kesah', 'rancang', 'uu', 'kuhp']</t>
+          <t>['vaksin', 'bang']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['vaksin', 'bang']</t>
         </is>
       </c>
     </row>
@@ -2307,34 +2559,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>23150</v>
+        <v>30992</v>
       </c>
       <c r="C53" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">skenario kedua yang cepat itu adalah presiden mengeluarkan perpu sehingga secara otomatis pasal bermasalah </t>
+          <t>mari kita aminkan</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['skenario', 'kedua', 'yang', 'cepat', 'itu', 'adalah', 'presiden', 'mengeluarkan', 'perpu', 'sehingga', 'secara', 'otomatis', 'pasal', 'bermasalah']</t>
+          <t>['mari', 'kita', 'aminkan']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['mari', 'kita', 'aminkan']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['skenario', 'cepat', 'presiden', 'mengeluarkan', 'perpu', 'otomatis', 'pasal', 'bermasalah']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['skenario', 'cepat', 'presiden', 'keluar', 'perpu', 'otomatis', 'pasal', 'masalah']</t>
+          <t>['mari', 'aminkan']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['mari', 'amin']</t>
         </is>
       </c>
     </row>
@@ -2343,34 +2600,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>23151</v>
+        <v>30993</v>
       </c>
       <c r="C54" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>pertama adalah melakukan revisi terhadap undangundang yang bermasalah seperti uu ite sehingga kemudian pasalpasa</t>
+          <t xml:space="preserve">ayo datang ke kins coffee roasters and coworking space di mataram ditunggu jl gn kerinci dasan agung baru </t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['pertama', 'adalah', 'melakukan', 'revisi', 'terhadap', 'undangundang', 'yang', 'bermasalah', 'seperti', 'uu', 'ite', 'sehingga', 'kemudian', 'pasalpasa']</t>
+          <t>['ayo', 'datang', 'ke', 'kins', 'coffee', 'roasters', 'and', 'coworking', 'space', 'di', 'mataram', 'ditunggu', 'jl', 'gn', 'kerinci', 'dasan', 'agung', 'baru']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['ayo', 'datang', 'ke', 'kins', 'coffee', 'roasters', 'and', 'coworking', 'space', 'di', 'mataram', 'ditunggu', 'jalan', 'begini', 'kerinci', 'dasan', 'agung', 'baru']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['revisi', 'undangundang', 'bermasalah', 'uu', 'ite', 'pasalpasa']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['revisi', 'undangundang', 'masalah', 'uu', 'ite', 'pasalpasa']</t>
+          <t>['ayo', 'kins', 'coffee', 'roasters', 'and', 'coworking', 'space', 'mataram', 'ditunggu', 'jalan', 'kerinci', 'dasan', 'agung']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['ayo', 'kins', 'coffee', 'roasters', 'and', 'coworking', 'space', 'mataram', 'tunggu', 'jalan', 'kerinci', 'das', 'agung']</t>
         </is>
       </c>
     </row>
@@ -2379,34 +2641,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>23152</v>
+        <v>30994</v>
       </c>
       <c r="C55" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>pada dasarnya ada tiga skenario alternatif solusi untuk mengakhiri ketidakpastian hukum di indonesia yang bisa ber</t>
+          <t>negeriku rakyatku taunami dan gelombang adalah sahabat dalam perjalanan perahu kita siapkan perjalanan kita ter</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['pada', 'dasarnya', 'ada', 'tiga', 'skenario', 'alternatif', 'solusi', 'untuk', 'mengakhiri', 'ketidakpastian', 'hukum', 'di', 'indonesia', 'yang', 'bisa', 'ber']</t>
+          <t>['negeriku', 'rakyatku', 'taunami', 'dan', 'gelombang', 'adalah', 'sahabat', 'dalam', 'perjalanan', 'perahu', 'kita', 'siapkan', 'perjalanan', 'kita', 'ter']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['negeriku', 'rakyatku', 'taunami', 'dan', 'gelombang', 'adalah', 'sahabat', 'dalam', 'perjalanan', 'perahu', 'kita', 'siapkan', 'perjalanan', 'kita', 'ter']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['dasarnya', 'skenario', 'alternatif', 'solusi', 'ketidakpastian', 'hukum', 'indonesia', 'ber']</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['dasar', 'skenario', 'alternatif', 'solusi', 'ketidakpastian', 'hukum', 'indonesia', 'ber']</t>
+          <t>['negeriku', 'rakyatku', 'taunami', 'gelombang', 'sahabat', 'perjalanan', 'perahu', 'siapkan', 'perjalanan', 'ter']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['negeri', 'rakyat', 'taunami', 'gelombang', 'sahabat', 'jalan', 'perahu', 'siap', 'jalan', 'ter']</t>
         </is>
       </c>
     </row>
@@ -2415,34 +2682,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>23153</v>
+        <v>30995</v>
       </c>
       <c r="C56" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">meski masih di kampung banyak kawan menanyakan saya tentang bagaimana melihat perubahan sikap pemerintah soal uu </t>
+          <t>susurilah pantai gelora dengarlah suara perubahan desir angin mencipta gelombang lautan menggelinding menja</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['meski', 'masih', 'di', 'kampung', 'banyak', 'kawan', 'menanyakan', 'saya', 'tentang', 'bagaimana', 'melihat', 'perubahan', 'sikap', 'pemerintah', 'soal', 'uu']</t>
+          <t>['susurilah', 'pantai', 'gelora', 'dengarlah', 'suara', 'perubahan', 'desir', 'angin', 'mencipta', 'gelombang', 'lautan', 'menggelinding', 'menja']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['susurilah', 'pantai', 'gelora', 'dengarlah', 'suara', 'perubahan', 'desir', 'angin', 'mencipta', 'gelombang', 'lautan', 'menggelinding', 'menja']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['kampung', 'kawan', 'perubahan', 'sikap', 'pemerintah', 'uu']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['kampung', 'kawan', 'ubah', 'sikap', 'perintah', 'uu']</t>
+          <t>['susurilah', 'pantai', 'gelora', 'dengarlah', 'suara', 'perubahan', 'desir', 'angin', 'mencipta', 'gelombang', 'lautan', 'menggelinding', 'menja']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['susur', 'pantai', 'gelora', 'dengar', 'suara', 'ubah', 'desir', 'angin', 'cipta', 'gelombang', 'laut', 'gelinding', 'menja']</t>
         </is>
       </c>
     </row>
@@ -2451,30 +2723,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>23154</v>
+        <v>30996</v>
       </c>
       <c r="C57" t="n">
-        <v>279</v>
-      </c>
-      <c r="D57" t="inlineStr"/>
+        <v>360</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">jangan sampai uang yang ditenukan dalam perkara ini hanya uang cash yang ditemukan di restoranini akan membuat </t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['jangan', 'sampai', 'uang', 'yang', 'ditenukan', 'dalam', 'perkara', 'ini', 'hanya', 'uang', 'cash', 'yang', 'ditemukan', 'di', 'restoranini', 'akan', 'membuat']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['jangan', 'sampai', 'uang', 'yang', 'ditenukan', 'dalam', 'perkara', 'ini', 'hanya', 'uang', 'cash', 'yang', 'ditemukan', 'di', 'restoranini', 'akan', 'membuat']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['uang', 'ditenukan', 'perkara', 'uang', 'cash', 'ditemukan', 'restoranini']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['uang', 'tenuk', 'perkara', 'uang', 'cash', 'temu', 'restoranini']</t>
         </is>
       </c>
     </row>
@@ -2483,30 +2764,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>23155</v>
+        <v>30997</v>
       </c>
       <c r="C58" t="n">
-        <v>279</v>
-      </c>
-      <c r="D58" t="inlineStr"/>
+        <v>360</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>dengan sistem dalam uu hasil revisi baru jika kpk menangkap seseorang pasti sudah dengan alat bukti hasil audit yg</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['dengan', 'sistem', 'dalam', 'uu', 'hasil', 'revisi', 'baru', 'jika', 'kpk', 'menangkap', 'seseorang', 'pasti', 'sudah', 'dengan', 'alat', 'bukti', 'hasil', 'audit', 'yg']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['dengan', 'sistem', 'dalam', 'undang, undang', 'hasil', 'revisi', 'baru', 'jika', 'komisi, pemberantasan, korupsi', 'menangkap', 'seseorang', 'pasti', 'sudah', 'dengan', 'alat', 'bukti', 'hasil', 'audit', 'yang']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['sistem', 'undang, undang', 'hasil', 'revisi', 'komisi, pemberantasan, korupsi', 'menangkap', 'alat', 'bukti', 'hasil', 'audit']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['sistem', 'undang undang', 'hasil', 'revisi', 'komisi berantas korupsi', 'tangkap', 'alat', 'bukti', 'hasil', 'audit']</t>
         </is>
       </c>
     </row>
@@ -2515,34 +2805,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>23156</v>
+        <v>30998</v>
       </c>
       <c r="C59" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>perjalan panjang dari jakarta disambut di ayo merapat</t>
+          <t>ini buku hampir halaman masih tersimpan belum dipublikasisaya bicara dan menulis kritik kepada kpk sepanjan</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['perjalan', 'panjang', 'dari', 'jakarta', 'disambut', 'di', 'ayo', 'merapat']</t>
+          <t>['ini', 'buku', 'hampir', 'halaman', 'masih', 'tersimpan', 'belum', 'dipublikasisaya', 'bicara', 'dan', 'menulis', 'kritik', 'kepada', 'kpk', 'sepanjan']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['ini', 'buku', 'hampir', 'halaman', 'masih', 'tersimpan', 'belum', 'dipublikasisaya', 'bicara', 'dan', 'menulis', 'kritik', 'kepada', 'komisi, pemberantasan, korupsi', 'sepanjan']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['perjalan', 'jakarta', 'disambut', 'ayo', 'merapat']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['jalan', 'jakarta', 'sambut', 'ayo', 'rapat']</t>
+          <t>['buku', 'halaman', 'tersimpan', 'dipublikasisaya', 'bicara', 'menulis', 'kritik', 'komisi, pemberantasan, korupsi', 'sepanjan']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['buku', 'halaman', 'simpan', 'dipublikasisaya', 'bicara', 'tulis', 'kritik', 'komisi berantas korupsi', 'sepanjan']</t>
         </is>
       </c>
     </row>
@@ -2551,34 +2846,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>23157</v>
+        <v>30999</v>
       </c>
       <c r="C60" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>subuh tadi saya tinggalkan rumah menuju airport soetta banjir menjebak mobil saya tapi alhamdulillah bisa sampai</t>
+          <t>katanya kpk lemah</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['subuh', 'tadi', 'saya', 'tinggalkan', 'rumah', 'menuju', 'airport', 'soetta', 'banjir', 'menjebak', 'mobil', 'saya', 'tapi', 'alhamdulillah', 'bisa', 'sampai']</t>
+          <t>['katanya', 'kpk', 'lemah']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['katanya', 'komisi, pemberantasan, korupsi', 'lemah']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['subuh', 'tinggalkan', 'rumah', 'airport', 'soetta', 'banjir', 'menjebak', 'mobil', 'alhamdulillah']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['subuh', 'tinggal', 'rumah', 'airport', 'soetta', 'banjir', 'jebak', 'mobil', 'alhamdulillah']</t>
+          <t>['komisi, pemberantasan, korupsi', 'lemah']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['komisi berantas korupsi', 'lemah']</t>
         </is>
       </c>
     </row>
@@ -2587,34 +2887,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>23158</v>
+        <v>31000</v>
       </c>
       <c r="C61" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>teman ini saatnya kita memberikan dukungan kepada yang sedang bekerja dalam senyap untuk mengusut da</t>
+          <t>jadi sekali lagi norma yang mengatur urusan antar individu itu tidak hilang akan tetapi kuhp baru memoderasinya den</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['teman', 'ini', 'saatnya', 'kita', 'memberikan', 'dukungan', 'kepada', 'yang', 'sedang', 'bekerja', 'dalam', 'senyap', 'untuk', 'mengusut', 'da']</t>
+          <t>['jadi', 'sekali', 'lagi', 'norma', 'yang', 'mengatur', 'urusan', 'antar', 'individu', 'itu', 'tidak', 'hilang', 'akan', 'tetapi', 'kuhp', 'baru', 'memoderasinya', 'den']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['jadi', 'sekali', 'lagi', 'norma', 'yang', 'mengatur', 'urusan', 'antar', 'individu', 'itu', 'tidak', 'hilang', 'akan', 'tetapi', 'kuhp', 'baru', 'memoderasinya', 'den']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['teman', 'dukungan', 'senyap', 'mengusut', 'da']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['teman', 'dukung', 'senyap', 'usut', 'da']</t>
+          <t>['norma', 'mengatur', 'urusan', 'individu', 'hilang', 'kuhp', 'memoderasinya', 'den']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['norma', 'atur', 'urus', 'individu', 'hilang', 'kuhp', 'memoderasinya', 'den']</t>
         </is>
       </c>
     </row>
@@ -2623,34 +2928,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>23159</v>
+        <v>31001</v>
       </c>
       <c r="C62" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>telah berpulang ke rahmatullah ibunda mas hj ellyda bint</t>
+          <t>tujuan pemidanaan dalam kuhp baru bergeser dari mengejar keadilan retributif penjeraan pelaku menjadi keadilan ko</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['telah', 'berpulang', 'ke', 'rahmatullah', 'ibunda', 'mas', 'hj', 'ellyda', 'bint']</t>
+          <t>['tujuan', 'pemidanaan', 'dalam', 'kuhp', 'baru', 'bergeser', 'dari', 'mengejar', 'keadilan', 'retributif', 'penjeraan', 'pelaku', 'menjadi', 'keadilan', 'ko']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['tujuan', 'pemidanaan', 'dalam', 'kuhp', 'baru', 'bergeser', 'dari', 'mengejar', 'keadilan', 'retributif', 'penjeraan', 'pelaku', 'menjadi', 'keadilan', 'kok']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['berpulang', 'rahmatullah', 'ibunda', 'mas', 'hj', 'ellyda', 'bint']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['pulang', 'rahmatullah', 'ibunda', 'mas', 'hj', 'ellyda', 'bint']</t>
+          <t>['tujuan', 'pemidanaan', 'kuhp', 'bergeser', 'mengejar', 'keadilan', 'retributif', 'penjeraan', 'pelaku', 'keadilan']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['tuju', 'pidana', 'kuhp', 'geser', 'kejar', 'adil', 'retributif', 'jera', 'laku', 'adil']</t>
         </is>
       </c>
     </row>
@@ -2659,30 +2969,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>23160</v>
+        <v>31002</v>
       </c>
       <c r="C63" t="n">
-        <v>279</v>
-      </c>
-      <c r="D63" t="inlineStr"/>
+        <v>360</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>pasal pasal yang ada di uu ite ketika masuk ke kuhp akan mengalami rekodifikasi dan akan sifatnya akan menjadi leb</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['pasal', 'pasal', 'yang', 'ada', 'di', 'uu', 'ite', 'ketika', 'masuk', 'ke', 'kuhp', 'akan', 'mengalami', 'rekodifikasi', 'dan', 'akan', 'sifatnya', 'akan', 'menjadi', 'leb']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['pasal', 'pasal', 'yang', 'ada', 'di', 'undang, undang', 'informasi, transaksi, elektronik', 'ketika', 'masuk', 'ke', 'kuhp', 'akan', 'mengalami', 'rekodifikasi', 'dan', 'akan', 'sifatnya', 'akan', 'menjadi', 'leb']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 17 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['pasal', 'pasal', 'undang, undang', 'informasi, transaksi, elektronik', 'masuk', 'kuhp', 'mengalami', 'rekodifikasi', 'sifatnya', 'leb']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['pasal', 'pasal', 'undang undang', 'informasi transaksi elektronik', 'masuk', 'kuhp', 'alami', 'rekodifikasi', 'sifat', 'leb']</t>
         </is>
       </c>
     </row>
@@ -2691,34 +3010,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>23161</v>
+        <v>31003</v>
       </c>
       <c r="C64" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>innalillahi wainna ilaihi rojiun</t>
+          <t>saya juga sudah mengusulkan jalan pamungkas yaitu dengan segwra membahas dan mengesahkan ruu kuhp yang sudah seles</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['innalillahi', 'wainna', 'ilaihi', 'rojiun']</t>
+          <t>['saya', 'juga', 'sudah', 'mengusulkan', 'jalan', 'pamungkas', 'yaitu', 'dengan', 'segwra', 'membahas', 'dan', 'mengesahkan', 'ruu', 'kuhp', 'yang', 'sudah', 'seles']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['saya', 'juga', 'sudah', 'mengusulkan', 'jalan', 'pamungkas', 'yaitu', 'dengan', 'segwra', 'membahas', 'dan', 'mengesahkan', 'rancangan, undang, undang', 'kuhp', 'yang', 'sudah', 'seles']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['innalillahi', 'wainna', 'ilaihi', 'rojiun']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['innalillahi', 'wainna', 'ilaihi', 'rojiun']</t>
+          <t>['mengusulkan', 'jalan', 'pamungkas', 'segwra', 'membahas', 'mengesahkan', 'rancangan, undang, undang', 'kuhp', 'seles']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['usul', 'jalan', 'pamungkas', 'segwra', 'bahas', 'kesah', 'rancang undang undang', 'kuhp', 'les']</t>
         </is>
       </c>
     </row>
@@ -2727,34 +3051,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>23162</v>
+        <v>31004</v>
       </c>
       <c r="C65" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>maju terus</t>
+          <t>memang secara filosofis tidak boleh ada satu realitas bagi individu atau kelompok merugikan dirinya lalu tak terdef</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['maju', 'terus']</t>
+          <t>['memang', 'secara', 'filosofis', 'tidak', 'boleh', 'ada', 'satu', 'realitas', 'bagi', 'individu', 'atau', 'kelompok', 'merugikan', 'dirinya', 'lalu', 'tak', 'terdef']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['memang', 'secara', 'filosofis', 'tidak', 'boleh', 'ada', 'satu', 'realitas', 'bagi', 'individu', 'atau', 'kelompok', 'merugikan', 'dirinya', 'lalu', 'tak', 'terdef']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['maju']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['maju']</t>
+          <t>['filosofis', 'realitas', 'individu', 'kelompok', 'merugikan', 'terdef']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['filosofis', 'realitas', 'individu', 'kelompok', 'rugi', 'terdef']</t>
         </is>
       </c>
     </row>
@@ -2763,34 +3092,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>23163</v>
+        <v>31005</v>
       </c>
       <c r="C66" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>sehat selalu pak kyai</t>
+          <t>tinggal masalahnya adalah bahwa tidak mungkin pula norma norma yang ada di ite hilang begitu saja semuanya krn norm</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['sehat', 'selalu', 'pak', 'kyai']</t>
+          <t>['tinggal', 'masalahnya', 'adalah', 'bahwa', 'tidak', 'mungkin', 'pula', 'norma', 'norma', 'yang', 'ada', 'di', 'ite', 'hilang', 'begitu', 'saja', 'semuanya', 'krn', 'norm']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['tinggal', 'masalahnya', 'adalah', 'bahwa', 'tidak', 'mungkin', 'pula', 'norma', 'norma', 'yang', 'ada', 'di', 'informasi, transaksi, elektronik', 'hilang', 'begitu', 'saja', 'semuanya', 'karena', 'norm']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['sehat', 'kyai']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['sehat', 'kyai']</t>
+          <t>['tinggal', 'norma', 'norma', 'informasi, transaksi, elektronik', 'hilang', 'norm']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['tinggal', 'norma', 'norma', 'informasi transaksi elektronik', 'hilang', 'norm']</t>
         </is>
       </c>
     </row>
@@ -2799,34 +3133,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>23164</v>
+        <v>31006</v>
       </c>
       <c r="C67" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>ayo anggota ri masak inisiatif dari kapolri dan presiden</t>
+          <t>selanjutnya jika pilihannya perppu yg merupakan hak konstitusional presiden dalam keadaan darurat perppu akan menu</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['ayo', 'anggota', 'ri', 'masak', 'inisiatif', 'dari', 'kapolri', 'dan', 'presiden']</t>
+          <t>['selanjutnya', 'jika', 'pilihannya', 'perppu', 'yg', 'merupakan', 'hak', 'konstitusional', 'presiden', 'dalam', 'keadaan', 'darurat', 'perppu', 'akan', 'menu']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['selanjutnya', 'jika', 'pilihannya', 'peraturan, pemerintah, pengganti, undang, undang', 'yang', 'merupakan', 'hak', 'konstitusional', 'presiden', 'dalam', 'keadaan', 'darurat', 'peraturan, pemerintah, pengganti, undang, undang', 'akan', 'menu']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['ayo', 'anggota', 'ri', 'masak', 'inisiatif', 'kapolri', 'presiden']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['ayo', 'anggota', 'ri', 'masak', 'inisiatif', 'kapolri', 'presiden']</t>
+          <t>['pilihannya', 'peraturan, pemerintah, pengganti, undang, undang', 'hak', 'konstitusional', 'presiden', 'darurat', 'peraturan, pemerintah, pengganti, undang, undang', 'menu']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['pilih', 'atur perintah ganti undang undang', 'hak', 'konstitusional', 'presiden', 'darurat', 'atur perintah ganti undang undang', 'menu']</t>
         </is>
       </c>
     </row>
@@ -2835,34 +3174,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>23165</v>
+        <v>31007</v>
       </c>
       <c r="C68" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>kami satu kelurahan mengucapkan terima kasih</t>
+          <t>masalah berikutnya jika pilihannya adalah revisi uu tidak bisa menonaktifkan uu lain uu darurat</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['kami', 'satu', 'kelurahan', 'mengucapkan', 'terima', 'kasih']</t>
+          <t>['masalah', 'berikutnya', 'jika', 'pilihannya', 'adalah', 'revisi', 'uu', 'tidak', 'bisa', 'menonaktifkan', 'uu', 'lain', 'uu', 'darurat']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['masalah', 'berikutnya', 'jika', 'pilihannya', 'adalah', 'revisi', 'undang, undang', 'tidak', 'bisa', 'menonaktifkan', 'undang, undang', 'lain', 'undang, undang', 'darurat']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['kelurahan', 'terima', 'kasih']</t>
+          <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['lurah', 'terima', 'kasih']</t>
+          <t>['pilihannya', 'revisi', 'undang, undang', 'menonaktifkan', 'undang, undang', 'undang, undang', 'darurat']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['pilih', 'revisi', 'undang undang', 'nonaktif', 'undang undang', 'undang undang', 'darurat']</t>
         </is>
       </c>
     </row>
@@ -2871,34 +3215,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>23166</v>
+        <v>31008</v>
       </c>
       <c r="C69" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>ayo ngantor teman di jalan juga gapapa</t>
+          <t>pilihan semisal ini butuh waktu lama karena semuanya harus msk dlm prolegnas dan memerlukan pembahasa</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['ayo', 'ngantor', 'teman', 'di', 'jalan', 'juga', 'gapapa']</t>
+          <t>['pilihan', 'semisal', 'ini', 'butuh', 'waktu', 'lama', 'karena', 'semuanya', 'harus', 'msk', 'dlm', 'prolegnas', 'dan', 'memerlukan', 'pembahasa']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['pilihan', 'semisal', 'ini', 'butuh', 'waktu', 'lama', 'karena', 'semuanya', 'harus', 'masuk', 'dalam', 'prolegnas', 'dan', 'memerlukan', 'pembahasa']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['ayo', 'ngantor', 'teman', 'jalan', 'gapapa']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['ayo', 'ngantor', 'teman', 'jalan', 'gapapa']</t>
+          <t>['pilihan', 'butuh', 'masuk', 'prolegnas', 'pembahasa']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['pilih', 'butuh', 'masuk', 'prolegnas', 'bahasa']</t>
         </is>
       </c>
     </row>
@@ -2907,34 +3256,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>23167</v>
+        <v>31009</v>
       </c>
       <c r="C70" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>perkara kebanyakan anggota ri tidak menggunakan hak konstitusionalnya untuk menyatakan pendapat dan bahkan ber</t>
+          <t>dibalik pidato presiden dalam rapat kordinasi pimpinan tni polri sudah sangat jelas merefleksikan beberapa dilema</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['perkara', 'kebanyakan', 'anggota', 'ri', 'tidak', 'menggunakan', 'hak', 'konstitusionalnya', 'untuk', 'menyatakan', 'pendapat', 'dan', 'bahkan', 'ber']</t>
+          <t>['dibalik', 'pidato', 'presiden', 'dalam', 'rapat', 'kordinasi', 'pimpinan', 'tni', 'polri', 'sudah', 'sangat', 'jelas', 'merefleksikan', 'beberapa', 'dilema']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['dibalik', 'pidato', 'presiden', 'dalam', 'rapat', 'kordinasi', 'pimpinan', 'tentara, nasional, indonesia', 'kepolisian, republik, indonesia', 'sudah', 'sangat', 'jelas', 'merefleksikan', 'beberapa', 'dilema']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['perkara', 'kebanyakan', 'anggota', 'ri', 'hak', 'konstitusionalnya', 'pendapat', 'ber']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['perkara', 'banyak', 'anggota', 'ri', 'hak', 'konstitusional', 'dapat', 'ber']</t>
+          <t>['dibalik', 'pidato', 'presiden', 'rapat', 'kordinasi', 'pimpinan', 'tentara, nasional, indonesia', 'kepolisian, republik, indonesia', 'merefleksikan', 'dilema']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['balik', 'pidato', 'presiden', 'rapat', 'kordinasi', 'pimpin', 'tentara nasional indonesia', 'polisi republik indonesia', 'refleksi', 'dilema']</t>
         </is>
       </c>
     </row>
@@ -2943,34 +3297,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>23168</v>
+        <v>31010</v>
       </c>
       <c r="C71" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>caranya jadi anggota ri dan dapat hak imuitas pasal  uud gampang to</t>
+          <t>tindakan cepat bisa langsung dihadapkan ke meja kerja presiden semisal saya mengusul ada tiga pilihan langkah cep</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['caranya', 'jadi', 'anggota', 'ri', 'dan', 'dapat', 'hak', 'imuitas', 'pasal', 'uud', 'gampang', 'to']</t>
+          <t>['tindakan', 'cepat', 'bisa', 'langsung', 'dihadapkan', 'ke', 'meja', 'kerja', 'presiden', 'semisal', 'saya', 'mengusul', 'ada', 'tiga', 'pilihan', 'langkah', 'cep']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['tindakan', 'cepat', 'bisa', 'langsung', 'dihadapkan', 'ke', 'meja', 'kerja', 'presiden', 'semisal', 'saya', 'mengusul', 'ada', 'tiga', 'pilihan', 'langkah', 'cep']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['anggota', 'ri', 'hak', 'imuitas', 'pasal', 'uud', 'gampang', 'to']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['anggota', 'ri', 'hak', 'imuitas', 'pasal', 'uud', 'gampang', 'to']</t>
+          <t>['tindakan', 'cepat', 'langsung', 'dihadapkan', 'meja', 'kerja', 'presiden', 'mengusul', 'pilihan', 'langkah', 'cep']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['tindak', 'cepat', 'langsung', 'hadap', 'meja', 'kerja', 'presiden', 'usul', 'pilih', 'langkah', 'cep']</t>
         </is>
       </c>
     </row>
@@ -2979,34 +3338,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>23169</v>
+        <v>31011</v>
       </c>
       <c r="C72" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>tidak disebut nama tidak disebut siapa itu evaluasi buat kita semuajangan tersinggungndak baik</t>
+          <t>tafsir atas ucapan presiden sejatinya segera nampak dalam tindakan cepat mengeksekusi dan menjaga marwah tiap kata</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['tidak', 'disebut', 'nama', 'tidak', 'disebut', 'siapa', 'itu', 'evaluasi', 'buat', 'kita', 'semuajangan', 'tersinggungndak', 'baik']</t>
+          <t>['tafsir', 'atas', 'ucapan', 'presiden', 'sejatinya', 'segera', 'nampak', 'dalam', 'tindakan', 'cepat', 'mengeksekusi', 'dan', 'menjaga', 'marwah', 'tiap', 'kata']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 13 outcomes&gt;</t>
+          <t>['tafsir', 'atas', 'ucapan', 'presiden', 'sejatinya', 'segera', 'menampak', 'dalam', 'tindakan', 'cepat', 'mengeksekusi', 'dan', 'menjaga', 'marwah', 'tiap', 'kata']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['nama', 'evaluasi', 'semuajangan', 'tersinggungndak']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['nama', 'evaluasi', 'semuajangan', 'tersinggungndak']</t>
+          <t>['tafsir', 'ucapan', 'presiden', 'sejatinya', 'menampak', 'tindakan', 'cepat', 'mengeksekusi', 'menjaga', 'marwah']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['tafsir', 'ucap', 'presiden', 'sejati', 'tampak', 'tindak', 'cepat', 'eksekusi', 'jaga', 'marwah']</t>
         </is>
       </c>
     </row>
@@ -3015,34 +3379,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>23170</v>
+        <v>31012</v>
       </c>
       <c r="C73" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t xml:space="preserve">planing tiba masa tiba akal kalau ada rencana berubah di tengah jalan do sibuk dianggap </t>
+          <t>ucapan presiden harusnya bisa ditafsir cepat oleh kabinet tafsir nya tidak lagi mundur ke belakang dengan membentu</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['planing', 'tiba', 'masa', 'tiba', 'akal', 'kalau', 'ada', 'rencana', 'berubah', 'di', 'tengah', 'jalan', 'do', 'sibuk', 'dianggap']</t>
+          <t>['ucapan', 'presiden', 'harusnya', 'bisa', 'ditafsir', 'cepat', 'oleh', 'kabinet', 'tafsir', 'nya', 'tidak', 'lagi', 'mundur', 'ke', 'belakang', 'dengan', 'membentu']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['ucapan', 'presiden', 'harusnya', 'bisa', 'ditafsir', 'cepat', 'oleh', 'kabinet', 'tafsir', 'nya', 'tidak', 'lagi', 'mundur', 'ke', 'belakang', 'dengan', 'membentu']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['planing', 'akal', 'rencana', 'berubah', 'jalan', 'do', 'sibuk', 'dianggap']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['planing', 'akal', 'rencana', 'ubah', 'jalan', 'do', 'sibuk', 'anggap']</t>
+          <t>['ucapan', 'presiden', 'ditafsir', 'cepat', 'kabinet', 'tafsir', 'mundur', 'membentu']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['ucap', 'presiden', 'tafsir', 'cepat', 'kabinet', 'tafsir', 'mundur', 'membentu']</t>
         </is>
       </c>
     </row>
@@ -3051,34 +3420,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>23171</v>
+        <v>31013</v>
       </c>
       <c r="C74" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>sempit gak bisa baca gambar besar lama terlilit masalah gak tau jalan keluar dangkal tidak</t>
+          <t>dan terkait presiden sudah dengan sangat jelas menyebut ada rasa keadilan masyarakat yang tak terpenuh</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['sempit', 'gak', 'bisa', 'baca', 'gambar', 'besar', 'lama', 'terlilit', 'masalah', 'gak', 'tau', 'jalan', 'keluar', 'dangkal', 'tidak']</t>
+          <t>['dan', 'terkait', 'presiden', 'sudah', 'dengan', 'sangat', 'jelas', 'menyebut', 'ada', 'rasa', 'keadilan', 'masyarakat', 'yang', 'tak', 'terpenuh']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['dan', 'terkait', 'presiden', 'sudah', 'dengan', 'sangat', 'jelas', 'menyebut', 'ada', 'rasa', 'keadilan', 'masyarakat', 'yang', 'tak', 'terpenuh']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['sempit', 'baca', 'gambar', 'terlilit', 'jalan', 'dangkal']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['sempit', 'baca', 'gambar', 'lilit', 'jalan', 'dangkal']</t>
+          <t>['terkait', 'presiden', 'menyebut', 'keadilan', 'masyarakat', 'terpenuh']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['kait', 'presiden', 'sebut', 'adil', 'masyarakat', 'penuh']</t>
         </is>
       </c>
     </row>
@@ -3087,34 +3461,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>23172</v>
+        <v>31014</v>
       </c>
       <c r="C75" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>pagi prof alhamdulillah usul saya cabut aja uu ite dan segera bahas pengesahan ruu kuhp baru yg sebenarnya pad</t>
+          <t>sebab dalam pemahaman saya ucapan presiden di hadapan publik tidak lahir dari ruang kosong presiden punya segala</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['pagi', 'prof', 'alhamdulillah', 'usul', 'saya', 'cabut', 'aja', 'uu', 'ite', 'dan', 'segera', 'bahas', 'pengesahan', 'ruu', 'kuhp', 'baru', 'yg', 'sebenarnya', 'pad']</t>
+          <t>['sebab', 'dalam', 'pemahaman', 'saya', 'ucapan', 'presiden', 'di', 'hadapan', 'publik', 'tidak', 'lahir', 'dari', 'ruang', 'kosong', 'presiden', 'punya', 'segala']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['sebab', 'dalam', 'pemahaman', 'saya', 'ucapan', 'presiden', 'di', 'hadapan', 'publik', 'tidak', 'lahir', 'dari', 'ruang', 'kosong', 'presiden', 'punya', 'segala']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['pagi', 'prof', 'alhamdulillah', 'usul', 'cabut', 'uu', 'ite', 'bahas', 'pengesahan', 'ruu', 'kuhp', 'pad']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['pagi', 'prof', 'alhamdulillah', 'usul', 'cabut', 'uu', 'ite', 'bahas', 'kesah', 'ruu', 'kuhp', 'pad']</t>
+          <t>['pemahaman', 'ucapan', 'presiden', 'hadapan', 'publik', 'lahir', 'ruang', 'kosong', 'presiden']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['paham', 'ucap', 'presiden', 'hadap', 'publik', 'lahir', 'ruang', 'kosong', 'presiden']</t>
         </is>
       </c>
     </row>
@@ -3123,34 +3502,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>23173</v>
+        <v>31015</v>
       </c>
       <c r="C76" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>jangan catut nama almamatermu kalau berani satu lawan satu</t>
+          <t>saya justru berharap inisiatif yang lebih cepat datang dari kabinet jajaran kabinet harus mengadaptasi sistem kerj</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['jangan', 'catut', 'nama', 'almamatermu', 'kalau', 'berani', 'satu', 'lawan', 'satu']</t>
+          <t>['saya', 'justru', 'berharap', 'inisiatif', 'yang', 'lebih', 'cepat', 'datang', 'dari', 'kabinet', 'jajaran', 'kabinet', 'harus', 'mengadaptasi', 'sistem', 'kerj']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
+          <t>['saya', 'justru', 'berharap', 'inisiatif', 'yang', 'lebih', 'cepat', 'datang', 'dari', 'kabinet', 'jajaran', 'kabinet', 'harus', 'mengadaptasi', 'sistem', 'kerj']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['catut', 'nama', 'almamatermu', 'berani', 'lawan']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['catut', 'nama', 'almamater', 'berani', 'lawan']</t>
+          <t>['berharap', 'inisiatif', 'cepat', 'kabinet', 'jajaran', 'kabinet', 'mengadaptasi', 'sistem', 'kerj']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['harap', 'inisiatif', 'cepat', 'kabinet', 'jajar', 'kabinet', 'adaptasi', 'sistem', 'kerj']</t>
         </is>
       </c>
     </row>
@@ -3159,34 +3543,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>23174</v>
+        <v>31016</v>
       </c>
       <c r="C77" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>selamat pagi</t>
+          <t>kapolri kita yang baru sepertinya lebih memahami maksud presiden lalu beliau mencoba beberapa inisiatif dan merup</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['selamat', 'pagi']</t>
+          <t>['kapolri', 'kita', 'yang', 'baru', 'sepertinya', 'lebih', 'memahami', 'maksud', 'presiden', 'lalu', 'beliau', 'mencoba', 'beberapa', 'inisiatif', 'dan', 'merup']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['kepala, kepolisian, republik, indonesia', 'kita', 'yang', 'baru', 'sepertinya', 'lebih', 'memahami', 'maksud', 'presiden', 'lalu', 'beliau', 'mencoba', 'beberapa', 'inisiatif', 'dan', 'merup']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['selamat', 'pagi']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['selamat', 'pagi']</t>
+          <t>['kepala, kepolisian, republik, indonesia', 'memahami', 'maksud', 'presiden', 'beliau', 'mencoba', 'inisiatif', 'merup']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['kepala polisi republik indonesia', 'paham', 'maksud', 'presiden', 'beliau', 'coba', 'inisiatif', 'merup']</t>
         </is>
       </c>
     </row>
@@ -3195,34 +3584,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>23175</v>
+        <v>31017</v>
       </c>
       <c r="C78" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>katanya tapi kok besok dah senin aja</t>
+          <t>saya tidak memahami sebab musabab kalau rakyat akhirnya menganggap presiden hanya bercanda soal pada</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['katanya', 'tapi', 'kok', 'besok', 'dah', 'senin', 'aja']</t>
+          <t>['saya', 'tidak', 'memahami', 'sebab', 'musabab', 'kalau', 'rakyat', 'akhirnya', 'menganggap', 'presiden', 'hanya', 'bercanda', 'soal', 'pada']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['saya', 'tidak', 'memahami', 'sebab', 'musabab', 'kalau', 'rakyat', 'akhirnya', 'menganggap', 'presiden', 'hanya', 'bercanda', 'soal', 'pada']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['besok', 'dah', 'senin']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['besok', 'dah', 'senin']</t>
+          <t>['memahami', 'musabab', 'rakyat', 'menganggap', 'presiden', 'bercanda']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['paham', 'musabab', 'rakyat', 'anggap', 'presiden', 'canda']</t>
         </is>
       </c>
     </row>
@@ -3231,34 +3625,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>23176</v>
+        <v>31018</v>
       </c>
       <c r="C79" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>allahumma amin</t>
+          <t>pertahankan sensitifitas itu jenderal</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['allahumma', 'amin']</t>
+          <t>['pertahankan', 'sensitifitas', 'itu', 'jenderal']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['pertahankan', 'sensitivitas', 'itu', 'jenderal']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['allahumma', 'amin']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['allahumma', 'amin']</t>
+          <t>['pertahankan', 'sensitivitas', 'jenderal']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['tahan', 'sensitivitas', 'jenderal']</t>
         </is>
       </c>
     </row>
@@ -3267,34 +3666,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>23177</v>
+        <v>31019</v>
       </c>
       <c r="C80" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>terakhir prof asalkan istana tidak ikut bikin gaduh raykyat lebih tau batas percayalah rakyat tak seberapa akib</t>
+          <t>kabinet perang harus dibentuk</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['terakhir', 'prof', 'asalkan', 'istana', 'tidak', 'ikut', 'bikin', 'gaduh', 'raykyat', 'lebih', 'tau', 'batas', 'percayalah', 'rakyat', 'tak', 'seberapa', 'akib']</t>
+          <t>['kabinet', 'perang', 'harus', 'dibentuk']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['kabinet', 'perang', 'harus', 'dibentuk']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['prof', 'istana', 'gaduh', 'raykyat', 'batas', 'percayalah', 'rakyat', 'akib']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['prof', 'istana', 'gaduh', 'raykyat', 'batas', 'percaya', 'rakyat', 'akib']</t>
+          <t>['kabinet', 'perang', 'dibentuk']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['kabinet', 'perang', 'bentuk']</t>
         </is>
       </c>
     </row>
@@ -3303,34 +3707,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>23178</v>
+        <v>31020</v>
       </c>
       <c r="C81" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>prof apa yg terjadi di amerika kenapa trump masih mau diimpeach padahal ia sudah diganti secara konstitusional</t>
+          <t>tips jaga stamina sahabat</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['prof', 'apa', 'yg', 'terjadi', 'di', 'amerika', 'kenapa', 'trump', 'masih', 'mau', 'diimpeach', 'padahal', 'ia', 'sudah', 'diganti', 'secara', 'konstitusional']</t>
+          <t>['tips', 'jaga', 'stamina', 'sahabat']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['tips', 'jaga', 'stamina', 'sahabat']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['prof', 'amerika', 'trump', 'diimpeach', 'diganti', 'konstitusional']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['prof', 'amerika', 'trump', 'diimpeach', 'ganti', 'konstitusional']</t>
+          <t>['tips', 'jaga', 'stamina', 'sahabat']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['tips', 'jaga', 'stamina', 'sahabat']</t>
         </is>
       </c>
     </row>
@@ -3339,34 +3748,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>23179</v>
+        <v>31021</v>
       </c>
       <c r="C82" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>sekali lagi prof yang penting negara tidak saja harus adil tapi harus nampak adil negara harus memfasilitasi kebe</t>
+          <t>serem amat yak</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['sekali', 'lagi', 'prof', 'yang', 'penting', 'negara', 'tidak', 'saja', 'harus', 'adil', 'tapi', 'harus', 'nampak', 'adil', 'negara', 'harus', 'memfasilitasi', 'kebe']</t>
+          <t>['serem', 'amat', 'yak']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 18 outcomes&gt;</t>
+          <t>['seram', 'amat', 'ya']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['prof', 'negara', 'adil', 'nampak', 'adil', 'negara', 'memfasilitasi', 'kebe']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['prof', 'negara', 'adil', 'nampak', 'adil', 'negara', 'fasilitas', 'kebe']</t>
+          <t>['seram']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['seram']</t>
         </is>
       </c>
     </row>
@@ -3375,34 +3789,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>23180</v>
+        <v>31022</v>
       </c>
       <c r="C83" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>prof soal maki dan omong kotor ada di seantero negeri sejak negara belum lahir sejak hukum belum ada tapi seka</t>
+          <t xml:space="preserve">menyaksikan teman petambak mengeringkan tambak untuk panen udang tadi sorekita harus segera bergeser </t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['prof', 'soal', 'maki', 'dan', 'omong', 'kotor', 'ada', 'di', 'seantero', 'negeri', 'sejak', 'negara', 'belum', 'lahir', 'sejak', 'hukum', 'belum', 'ada', 'tapi', 'seka']</t>
+          <t>['menyaksikan', 'teman', 'petambak', 'mengeringkan', 'tambak', 'untuk', 'panen', 'udang', 'tadi', 'sorekita', 'harus', 'segera', 'bergeser']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 20 outcomes&gt;</t>
+          <t>['menyaksikan', 'teman', 'petambak', 'mengeringkan', 'tambak', 'untuk', 'panen', 'udang', 'tadi', 'sorekita', 'harus', 'segera', 'bergeser']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['prof', 'maki', 'omong', 'kotor', 'seantero', 'negeri', 'negara', 'lahir', 'hukum', 'seka']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['prof', 'maki', 'omong', 'kotor', 'antero', 'negeri', 'negara', 'lahir', 'hukum', 'seka']</t>
+          <t>['menyaksikan', 'teman', 'petambak', 'mengeringkan', 'tambak', 'panen', 'udang', 'sorekita', 'bergeser']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['saksi', 'teman', 'tambak', 'ering', 'tambak', 'panen', 'udang', 'sorekita', 'geser']</t>
         </is>
       </c>
     </row>
@@ -3411,34 +3830,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>23181</v>
+        <v>31023</v>
       </c>
       <c r="C84" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>jadi prof respon negara atas kebebasan rakyat termasuk di dunia maya bukan dengan membawanya ke ruang sidang teta</t>
+          <t>saya tidak mendesak saya hanya usulkan skenario</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['jadi', 'prof', 'respon', 'negara', 'atas', 'kebebasan', 'rakyat', 'termasuk', 'di', 'dunia', 'maya', 'bukan', 'dengan', 'membawanya', 'ke', 'ruang', 'sidang', 'teta']</t>
+          <t>['saya', 'tidak', 'mendesak', 'saya', 'hanya', 'usulkan', 'skenario']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['saya', 'tidak', 'mendesak', 'saya', 'hanya', 'usulkan', 'skenario']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['prof', 'respon', 'negara', 'kebebasan', 'rakyat', 'dunia', 'maya', 'membawanya', 'ruang', 'sidang', 'teta']</t>
+          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['prof', 'respon', 'negara', 'bebas', 'rakyat', 'dunia', 'maya', 'bawa', 'ruang', 'sidang', 'teta']</t>
+          <t>['mendesak', 'usulkan', 'skenario']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['desak', 'usul', 'skenario']</t>
         </is>
       </c>
     </row>
@@ -3447,34 +3871,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>23182</v>
+        <v>31024</v>
       </c>
       <c r="C85" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t xml:space="preserve">prof jika negara berhenti memfasilitasi pertengkaran remeh temeh soal percakapan whatsapp dan media sosial soal </t>
+          <t>jadi kita akan segera memiliki kitab uu hukum pidana karya bangsa sendiri untuk mengakhiri ketidakpastian yg berak</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['prof', 'jika', 'negara', 'berhenti', 'memfasilitasi', 'pertengkaran', 'remeh', 'temeh', 'soal', 'percakapan', 'whatsapp', 'dan', 'media', 'sosial', 'soal']</t>
+          <t>['jadi', 'kita', 'akan', 'segera', 'memiliki', 'kitab', 'uu', 'hukum', 'pidana', 'karya', 'bangsa', 'sendiri', 'untuk', 'mengakhiri', 'ketidakpastian', 'yg', 'berak']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['jadi', 'kita', 'akan', 'segera', 'memiliki', 'kitab', 'undang, undang', 'hukum', 'pidana', 'karya', 'bangsa', 'sendiri', 'untuk', 'mengakhiri', 'ketidakpastian', 'yang', 'berak']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['prof', 'negara', 'berhenti', 'memfasilitasi', 'pertengkaran', 'remeh', 'temeh', 'percakapan', 'whatsapp', 'media', 'sosial']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['prof', 'negara', 'henti', 'fasilitas', 'tengkar', 'remeh', 'temeh', 'cakap', 'whatsapp', 'media', 'sosial']</t>
+          <t>['memiliki', 'kitab', 'undang, undang', 'hukum', 'pidana', 'karya', 'bangsa', 'ketidakpastian', 'berak']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['milik', 'kitab', 'undang undang', 'hukum', 'pidana', 'karya', 'bangsa', 'ketidakpastian', 'berak']</t>
         </is>
       </c>
     </row>
@@ -3483,34 +3912,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>23183</v>
+        <v>31025</v>
       </c>
       <c r="C86" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>prof negara sedang bingung dengan warganya yang bising dan bertengkar soal gak jelas padahal negara memfasilitas</t>
+          <t>pada periode yang lalu sebetulnya ri sudah menyelesaikan pembahasan tingkat pertama ruu kuhp menurut uu ruu</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['prof', 'negara', 'sedang', 'bingung', 'dengan', 'warganya', 'yang', 'bising', 'dan', 'bertengkar', 'soal', 'gak', 'jelas', 'padahal', 'negara', 'memfasilitas']</t>
+          <t>['pada', 'periode', 'yang', 'lalu', 'sebetulnya', 'ri', 'sudah', 'menyelesaikan', 'pembahasan', 'tingkat', 'pertama', 'ruu', 'kuhp', 'menurut', 'uu', 'ruu']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
+          <t>['pada', 'periode', 'yang', 'lalu', 'sebenarnya', 'ri', 'sudah', 'menyelesaikan', 'pembahasan', 'tingkat', 'pertama', 'rancangan, undang, undang', 'kuhp', 'menurut', 'undang, undang', 'rancangan, undang, undang']</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>['prof', 'negara', 'bingung', 'warganya', 'bising', 'bertengkar', 'negara', 'memfasilitas']</t>
-        </is>
-      </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['prof', 'negara', 'bingung', 'warga', 'bising', 'tengkar', 'negara', 'fasilitas']</t>
+          <t>['periode', 'ri', 'menyelesaikan', 'pembahasan', 'tingkat', 'rancangan, undang, undang', 'kuhp', 'undang, undang', 'rancangan, undang, undang']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['periode', 'ri', 'selesai', 'bahas', 'tingkat', 'rancang undang undang', 'kuhp', 'undang undang', 'rancang undang undang']</t>
         </is>
       </c>
     </row>
@@ -3519,34 +3953,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>23184</v>
+        <v>31026</v>
       </c>
       <c r="C87" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>cara pemerintah melihat persoalan perlu diperbaiki prof jangan dipersonalisasi ini bukan soal pak din dan pak itu</t>
+          <t>kita memang mengapresiasi kepolisian ri kapolri dalam hal ini telah berinisiatif baik sekali untuk mengakhiri keti</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['cara', 'pemerintah', 'melihat', 'persoalan', 'perlu', 'diperbaiki', 'prof', 'jangan', 'dipersonalisasi', 'ini', 'bukan', 'soal', 'pak', 'din', 'dan', 'pak', 'itu']</t>
+          <t>['kita', 'memang', 'mengapresiasi', 'kepolisian', 'ri', 'kapolri', 'dalam', 'hal', 'ini', 'telah', 'berinisiatif', 'baik', 'sekali', 'untuk', 'mengakhiri', 'keti']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['kita', 'memang', 'mengapresiasi', 'kepolisian', 'ri', 'kepala, kepolisian, republik, indonesia', 'dalam', 'hal', 'ini', 'telah', 'berinisiatif', 'baik', 'sekali', 'untuk', 'mengakhiri', 'keti']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['pemerintah', 'diperbaiki', 'prof', 'dipersonalisasi', 'din']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['perintah', 'baik', 'prof', 'personal', 'din']</t>
+          <t>['mengapresiasi', 'kepolisian', 'ri', 'kepala, kepolisian, republik, indonesia', 'berinisiatif', 'keti']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['apresiasi', 'polisi', 'ri', 'kepala polisi republik indonesia', 'inisiatif', 'keti']</t>
         </is>
       </c>
     </row>
@@ -3555,34 +3994,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>23185</v>
+        <v>31027</v>
       </c>
       <c r="C88" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>buzzer itu surat kaleng</t>
+          <t>skenario ketiga ini pamungkas ini akan memberikan kepastian hukum yang lebih luas kepada seluruh uu lex specialis</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['buzzer', 'itu', 'surat', 'kaleng']</t>
+          <t>['skenario', 'ketiga', 'ini', 'pamungkas', 'ini', 'akan', 'memberikan', 'kepastian', 'hukum', 'yang', 'lebih', 'luas', 'kepada', 'seluruh', 'uu', 'lex', 'specialis']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['skenario', 'ketiga', 'ini', 'pamungkas', 'ini', 'akan', 'memberikan', 'kepastian', 'hukum', 'yang', 'lebih', 'luas', 'kepada', 'seluruh', 'undang, undang', 'lex', 'specialis']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['buzzer', 'surat', 'kaleng']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['buzzer', 'surat', 'kaleng']</t>
+          <t>['skenario', 'ketiga', 'pamungkas', 'kepastian', 'hukum', 'luas', 'undang, undang', 'lex', 'specialis']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['skenario', 'tiga', 'pamungkas', 'pasti', 'hukum', 'luas', 'undang undang', 'lex', 'specialis']</t>
         </is>
       </c>
     </row>
@@ -3591,34 +4035,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>23186</v>
+        <v>31028</v>
       </c>
       <c r="C89" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>supaya jgn kelamaan mingkem besok nonton biar kita jelaskan apa yg terjadijgn lupa</t>
+          <t>ketiga tentunya yang paling komprehensif adalah kita menuntaskan pembahasan dan pengesahan rancangan uu kuhp kita</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['supaya', 'jgn', 'kelamaan', 'mingkem', 'besok', 'nonton', 'biar', 'kita', 'jelaskan', 'apa', 'yg', 'terjadijgn', 'lupa']</t>
+          <t>['ketiga', 'tentunya', 'yang', 'paling', 'komprehensif', 'adalah', 'kita', 'menuntaskan', 'pembahasan', 'dan', 'pengesahan', 'rancangan', 'uu', 'kuhp', 'kita']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['ketiga', 'tentunya', 'yang', 'paling', 'komprehensif', 'adalah', 'kita', 'menuntaskan', 'pembahasan', 'dan', 'pengesahan', 'rancangan', 'undang, undang', 'kuhp', 'kita']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['mingkem', 'besok', 'nonton', 'terjadijgn', 'lupa']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['mingkem', 'besok', 'nonton', 'terjadijgn', 'lupa']</t>
+          <t>['ketiga', 'komprehensif', 'menuntaskan', 'pembahasan', 'pengesahan', 'rancangan', 'undang, undang', 'kuhp']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['tiga', 'komprehensif', 'tuntas', 'bahas', 'kesah', 'rancang', 'undang undang', 'kuhp']</t>
         </is>
       </c>
     </row>
@@ -3627,34 +4076,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>23187</v>
+        <v>31029</v>
       </c>
       <c r="C90" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>bacaan ringan tentang prof din dinsyamsuddin</t>
+          <t xml:space="preserve">skenario kedua yang cepat itu adalah presiden mengeluarkan perpu sehingga secara otomatis pasal bermasalah </t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['bacaan', 'ringan', 'tentang', 'prof', 'din', 'dinsyamsuddin']</t>
+          <t>['skenario', 'kedua', 'yang', 'cepat', 'itu', 'adalah', 'presiden', 'mengeluarkan', 'perpu', 'sehingga', 'secara', 'otomatis', 'pasal', 'bermasalah']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['skenario', 'kedua', 'yang', 'cepat', 'itu', 'adalah', 'presiden', 'mengeluarkan', 'peraturan, pemerintah, pengganti, undang, undang', 'sehingga', 'secara', 'otomatis', 'pasal', 'bermasalah']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['bacaan', 'ringan', 'prof', 'din', 'dinsyamsuddin']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['baca', 'ringan', 'prof', 'din', 'dinsyamsuddin']</t>
+          <t>['skenario', 'cepat', 'presiden', 'mengeluarkan', 'peraturan, pemerintah, pengganti, undang, undang', 'otomatis', 'pasal', 'bermasalah']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['skenario', 'cepat', 'presiden', 'keluar', 'atur perintah ganti undang undang', 'otomatis', 'pasal', 'masalah']</t>
         </is>
       </c>
     </row>
@@ -3663,34 +4117,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>23188</v>
+        <v>31030</v>
       </c>
       <c r="C91" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>pagi dapat buku gratis nih</t>
+          <t>pertama adalah melakukan revisi terhadap undangundang yang bermasalah seperti uu ite sehingga kemudian pasalpasa</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['pagi', 'dapat', 'buku', 'gratis', 'nih']</t>
+          <t>['pertama', 'adalah', 'melakukan', 'revisi', 'terhadap', 'undangundang', 'yang', 'bermasalah', 'seperti', 'uu', 'ite', 'sehingga', 'kemudian', 'pasalpasa']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['pertama', 'adalah', 'melakukan', 'revisi', 'terhadap', 'undangundang', 'yang', 'bermasalah', 'seperti', 'undang, undang', 'informasi, transaksi, elektronik', 'sehingga', 'kemudian', 'pasalpasa']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['pagi', 'buku', 'gratis']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['pagi', 'buku', 'gratis']</t>
+          <t>['revisi', 'undangundang', 'bermasalah', 'undang, undang', 'informasi, transaksi, elektronik', 'pasalpasa']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['revisi', 'undangundang', 'masalah', 'undang undang', 'informasi transaksi elektronik', 'pasalpasa']</t>
         </is>
       </c>
     </row>
@@ -3699,34 +4158,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>23189</v>
+        <v>31031</v>
       </c>
       <c r="C92" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>lalu saya teringat sebuah puisi rendra yg ditulis tahun dan dibaca selalu di depan aktifis mahasiswa puisi</t>
+          <t>pada dasarnya ada tiga skenario alternatif solusi untuk mengakhiri ketidakpastian hukum di indonesia yang bisa ber</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['lalu', 'saya', 'teringat', 'sebuah', 'puisi', 'rendra', 'yg', 'ditulis', 'tahun', 'dan', 'dibaca', 'selalu', 'di', 'depan', 'aktifis', 'mahasiswa', 'puisi']</t>
+          <t>['pada', 'dasarnya', 'ada', 'tiga', 'skenario', 'alternatif', 'solusi', 'untuk', 'mengakhiri', 'ketidakpastian', 'hukum', 'di', 'indonesia', 'yang', 'bisa', 'ber']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['pada', 'dasarnya', 'ada', 'tiga', 'skenario', 'alternatif', 'solusi', 'untuk', 'mengakhiri', 'ketidakpastian', 'hukum', 'di', 'indonesia', 'yang', 'bisa', 'ber']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['puisi', 'rendra', 'ditulis', 'dibaca', 'aktifis', 'mahasiswa', 'puisi']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['puisi', 'rendra', 'tulis', 'baca', 'aktif', 'mahasiswa', 'puisi']</t>
+          <t>['dasarnya', 'skenario', 'alternatif', 'solusi', 'ketidakpastian', 'hukum', 'indonesia', 'ber']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['dasar', 'skenario', 'alternatif', 'solusi', 'ketidakpastian', 'hukum', 'indonesia', 'ber']</t>
         </is>
       </c>
     </row>
@@ -3735,34 +4199,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>23190</v>
+        <v>31032</v>
       </c>
       <c r="C93" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>anggap saja permohonan dikritik dari presiden itu adalah maksud baik tapi pertanyaanya apakah maksud baik beliau</t>
+          <t xml:space="preserve">meski masih di kampung banyak kawan menanyakan saya tentang bagaimana melihat perubahan sikap pemerintah soal uu </t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['anggap', 'saja', 'permohonan', 'dikritik', 'dari', 'presiden', 'itu', 'adalah', 'maksud', 'baik', 'tapi', 'pertanyaanya', 'apakah', 'maksud', 'baik', 'beliau']</t>
+          <t>['meski', 'masih', 'di', 'kampung', 'banyak', 'kawan', 'menanyakan', 'saya', 'tentang', 'bagaimana', 'melihat', 'perubahan', 'sikap', 'pemerintah', 'soal', 'uu']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['meski', 'masih', 'di', 'kampung', 'banyak', 'kawan', 'menanyakan', 'saya', 'tentang', 'bagaimana', 'melihat', 'perubahan', 'sikap', 'pemerintah', 'soal', 'undang, undang']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['anggap', 'permohonan', 'dikritik', 'presiden', 'maksud', 'pertanyaanya', 'maksud', 'beliau']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['anggap', 'mohon', 'kritik', 'presiden', 'maksud', 'pertanyaanya', 'maksud', 'beliau']</t>
+          <t>['kampung', 'kawan', 'perubahan', 'sikap', 'pemerintah', 'undang, undang']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['kampung', 'kawan', 'ubah', 'sikap', 'perintah', 'undang undang']</t>
         </is>
       </c>
     </row>
@@ -3771,34 +4240,35 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>23191</v>
+        <v>31033</v>
       </c>
       <c r="C94" t="n">
-        <v>279</v>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>selamat tahun baru sahabatkusemoga sehat selamat dan bermanfaat selalu bagi masyarakat</t>
-        </is>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['selamat', 'tahun', 'baru', 'sahabatkusemoga', 'sehat', 'selamat', 'dan', 'bermanfaat', 'selalu', 'bagi', 'masyarakat']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['selamat', 'sahabatkusemoga', 'sehat', 'selamat', 'bermanfaat', 'masyarakat']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['selamat', 'sahabatkusemoga', 'sehat', 'selamat', 'manfaat', 'masyarakat']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3807,34 +4277,35 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>23192</v>
+        <v>31034</v>
       </c>
       <c r="C95" t="n">
-        <v>279</v>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>khotibnya mantap</t>
-        </is>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['khotibnya', 'mantap']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['khotibnya', 'mantap']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['khotibnya', 'mantap']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3843,34 +4314,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>23193</v>
+        <v>31035</v>
       </c>
       <c r="C96" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>dalam lakon yg dramatis itu yg kita tangkap dari suara para aktor sebagian memberi kita kebebasan dan sebagian</t>
+          <t>perjalan panjang dari jakarta disambut di ayo merapat</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['dalam', 'lakon', 'yg', 'dramatis', 'itu', 'yg', 'kita', 'tangkap', 'dari', 'suara', 'para', 'aktor', 'sebagian', 'memberi', 'kita', 'kebebasan', 'dan', 'sebagian']</t>
+          <t>['perjalan', 'panjang', 'dari', 'jakarta', 'disambut', 'di', 'ayo', 'merapat']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
+          <t>['perjalan', 'panjang', 'dari', 'jakarta', 'disambut', 'di', 'ayo', 'merapat']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['lakon', 'dramatis', 'tangkap', 'suara', 'aktor', 'kebebasan']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['lakon', 'dramatis', 'tangkap', 'suara', 'aktor', 'bebas']</t>
+          <t>['perjalan', 'jakarta', 'disambut', 'ayo', 'merapat']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['jalan', 'jakarta', 'sambut', 'ayo', 'rapat']</t>
         </is>
       </c>
     </row>
@@ -3879,34 +4355,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>23194</v>
+        <v>31036</v>
       </c>
       <c r="C97" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>tolonglah saudaramu yang berbuat zalim dan yang dizalimi mereka bertanya ya rasul jelas kami faham menolong</t>
+          <t>subuh tadi saya tinggalkan rumah menuju airport soetta banjir menjebak mobil saya tapi alhamdulillah bisa sampai</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['tolonglah', 'saudaramu', 'yang', 'berbuat', 'zalim', 'dan', 'yang', 'dizalimi', 'mereka', 'bertanya', 'ya', 'rasul', 'jelas', 'kami', 'faham', 'menolong']</t>
+          <t>['subuh', 'tadi', 'saya', 'tinggalkan', 'rumah', 'menuju', 'airport', 'soetta', 'banjir', 'menjebak', 'mobil', 'saya', 'tapi', 'alhamdulillah', 'bisa', 'sampai']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
+          <t>['subuh', 'tadi', 'saya', 'tinggalkan', 'rumah', 'menuju', 'airport', 'soetta', 'banjir', 'menjebak', 'mobil', 'saya', 'tapi', 'alhamdulillah', 'bisa', 'sampai']</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>['tolonglah', 'saudaramu', 'berbuat', 'zalim', 'dizalimi', 'rasul', 'faham', 'menolong']</t>
-        </is>
-      </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['tolong', 'saudara', 'buat', 'zalim', 'zalim', 'rasul', 'faham', 'tolong']</t>
+          <t>['subuh', 'tinggalkan', 'rumah', 'airport', 'soetta', 'banjir', 'menjebak', 'mobil', 'alhamdulillah']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['subuh', 'tinggal', 'rumah', 'airport', 'soetta', 'banjir', 'jebak', 'mobil', 'alhamdulillah']</t>
         </is>
       </c>
     </row>
@@ -3915,34 +4396,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>23195</v>
+        <v>31037</v>
       </c>
       <c r="C98" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>sabar sahabatku doa kami semua buat almarhumah mama daeng semoga allah swt lapangkan jalannya amin yra</t>
+          <t>teman ini saatnya kita memberikan dukungan kepada yang sedang bekerja dalam senyap untuk mengusut da</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['sabar', 'sahabatku', 'doa', 'kami', 'semua', 'buat', 'almarhumah', 'mama', 'daeng', 'semoga', 'allah', 'swt', 'lapangkan', 'jalannya', 'amin', 'yra']</t>
+          <t>['teman', 'ini', 'saatnya', 'kita', 'memberikan', 'dukungan', 'kepada', 'yang', 'sedang', 'bekerja', 'dalam', 'senyap', 'untuk', 'mengusut', 'da']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['teman', 'ini', 'saatnya', 'kita', 'memberikan', 'dukungan', 'kepada', 'yang', 'sedang', 'bekerja', 'dalam', 'senyap', 'untuk', 'mengusut', 'dan']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['sabar', 'sahabatku', 'doa', 'almarhumah', 'mama', 'daeng', 'semoga', 'allah', 'swt', 'lapangkan', 'jalannya', 'amin', 'yra']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['sabar', 'sahabat', 'doa', 'almarhumah', 'mama', 'daeng', 'moga', 'allah', 'swt', 'lapang', 'jalan', 'amin', 'yra']</t>
+          <t>['teman', 'dukungan', 'senyap', 'mengusut']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['teman', 'dukung', 'senyap', 'usut']</t>
         </is>
       </c>
     </row>
@@ -3951,34 +4437,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>23196</v>
+        <v>31038</v>
       </c>
       <c r="C99" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>jika kasus didamaikan kenapa tidak semua didamaikan aja ya</t>
+          <t>telah berpulang ke rahmatullah ibunda mas hj ellyda bint</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['jika', 'kasus', 'didamaikan', 'kenapa', 'tidak', 'semua', 'didamaikan', 'aja', 'ya']</t>
+          <t>['telah', 'berpulang', 'ke', 'rahmatullah', 'ibunda', 'mas', 'hj', 'ellyda', 'bint']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
+          <t>['telah', 'berpulang', 'ke', 'rahmatullah', 'ibunda', 'mas', 'hj', 'ellyda', 'bint']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['didamaikan', 'didamaikan']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['damai', 'damai']</t>
+          <t>['berpulang', 'rahmatullah', 'ibunda', 'mas', 'hj', 'ellyda', 'bint']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['pulang', 'rahmatullah', 'ibunda', 'mas', 'hj', 'ellyda', 'bint']</t>
         </is>
       </c>
     </row>
@@ -3987,34 +4478,35 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>23197</v>
+        <v>31039</v>
       </c>
       <c r="C100" t="n">
-        <v>279</v>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>sabar itu bukan menerima keadaan akibat kebodohan orang lain itu namanya apatis sabar bukan apatis sabar itu aktif</t>
-        </is>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['sabar', 'itu', 'bukan', 'menerima', 'keadaan', 'akibat', 'kebodohan', 'orang', 'lain', 'itu', 'namanya', 'apatis', 'sabar', 'bukan', 'apatis', 'sabar', 'itu', 'aktif']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 18 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['sabar', 'menerima', 'akibat', 'kebodohan', 'orang', 'namanya', 'apatis', 'sabar', 'apatis', 'sabar', 'aktif']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['sabar', 'terima', 'akibat', 'bodoh', 'orang', 'nama', 'apatis', 'sabar', 'apatis', 'sabar', 'aktif']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -4023,34 +4515,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>23198</v>
+        <v>31040</v>
       </c>
       <c r="C101" t="n">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>senin yang sabar</t>
+          <t>innalillahi wainna ilaihi rojiun</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['senin', 'yang', 'sabar']</t>
+          <t>['innalillahi', 'wainna', 'ilaihi', 'rojiun']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['innalillahi', 'wah, ini', 'ilaihi', 'rojiun']</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['senin', 'sabar']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['senin', 'sabar']</t>
+          <t>['innalillahi', 'wah, ini', 'ilaihi', 'rojiun']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['innalillahi', 'wah ini', 'ilaihi', 'rojiun']</t>
         </is>
       </c>
     </row>
